--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293DD19-D26E-4415-8310-109B15E64916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B4593-2DFA-4385-BED6-1A40431ADAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="151">
   <si>
     <t>Years</t>
   </si>
@@ -1318,14 +1318,14 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1693,28 +1693,28 @@
   </sheetPr>
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.28515625" style="15"/>
+    <col min="1" max="1" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
@@ -1723,18 +1723,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="45">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>110</v>
       </c>
@@ -1767,17 +1767,16 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="45">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="19">
-        <f>C7</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1789,17 +1788,16 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="45">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="19">
-        <f>C8</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1811,7 +1809,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>126</v>
       </c>
@@ -1830,8 +1828,8 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>111</v>
       </c>
@@ -1850,7 +1848,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>112</v>
       </c>
@@ -1869,8 +1867,8 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>137</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
@@ -1903,7 +1901,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
@@ -1924,7 +1922,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>115</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="56">
@@ -1964,7 +1962,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>118</v>
       </c>
@@ -2007,7 +2005,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>119</v>
       </c>
@@ -2018,7 +2016,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>120</v>
       </c>
@@ -2029,7 +2027,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>121</v>
       </c>
@@ -2046,8 +2044,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>122</v>
       </c>
@@ -2060,7 +2058,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -2073,7 +2071,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>124</v>
       </c>
@@ -2084,327 +2082,327 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
     </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
     </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
     </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
     </row>
-    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
     </row>
-    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
     </row>
-    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
     </row>
-    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
     </row>
-    <row r="104" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
     </row>
-    <row r="105" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
     </row>
-    <row r="107" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
     </row>
-    <row r="108" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
     </row>
@@ -2433,20 +2431,20 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2463,7 +2461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2475,7 +2473,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>54</v>
       </c>
@@ -2487,7 +2485,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>132</v>
       </c>
@@ -2500,480 +2498,480 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="49"/>
       <c r="C6" s="60"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="49"/>
       <c r="C7" s="60"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="49"/>
       <c r="C8" s="60"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="49"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="49"/>
       <c r="C10" s="60"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="49"/>
       <c r="C11" s="60"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="49"/>
       <c r="C12" s="60"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="49"/>
       <c r="C13" s="60"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="49"/>
       <c r="C14" s="60"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="49"/>
       <c r="C15" s="60"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="49"/>
       <c r="C16" s="60"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="49"/>
       <c r="C17" s="60"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="49"/>
       <c r="C18" s="60"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="49"/>
       <c r="C19" s="60"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="49"/>
       <c r="C20" s="60"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="49"/>
       <c r="C21" s="60"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="49"/>
       <c r="C22" s="60"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="49"/>
       <c r="C23" s="60"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="49"/>
       <c r="C24" s="60"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="49"/>
       <c r="C25" s="60"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="49"/>
       <c r="C26" s="60"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="49"/>
       <c r="C27" s="60"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="49"/>
       <c r="C28" s="60"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="49"/>
       <c r="C29" s="60"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="49"/>
       <c r="C30" s="60"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="49"/>
       <c r="C31" s="60"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="49"/>
       <c r="C32" s="60"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="49"/>
       <c r="C33" s="60"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="49"/>
       <c r="C34" s="60"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="49"/>
       <c r="C35" s="60"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="49"/>
       <c r="C36" s="60"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="49"/>
       <c r="C37" s="60"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="49"/>
       <c r="C38" s="60"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="49"/>
       <c r="C39" s="60"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="49"/>
       <c r="C40" s="60"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="58"/>
       <c r="B41" s="49"/>
       <c r="C41" s="60"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
       <c r="B42" s="49"/>
       <c r="C42" s="60"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="49"/>
       <c r="C43" s="60"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
       <c r="B44" s="49"/>
       <c r="C44" s="60"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="58"/>
       <c r="B45" s="49"/>
       <c r="C45" s="60"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
       <c r="B46" s="49"/>
       <c r="C46" s="60"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="49"/>
       <c r="C47" s="60"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
       <c r="B48" s="49"/>
       <c r="C48" s="60"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="49"/>
       <c r="C49" s="60"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="49"/>
       <c r="C50" s="60"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="49"/>
       <c r="C51" s="60"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="58"/>
       <c r="B52" s="49"/>
       <c r="C52" s="60"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="B53" s="49"/>
       <c r="C53" s="60"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="49"/>
       <c r="C54" s="60"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="B55" s="49"/>
       <c r="C55" s="60"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="49"/>
       <c r="C56" s="60"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="B57" s="49"/>
       <c r="C57" s="60"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="49"/>
       <c r="C58" s="60"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="49"/>
       <c r="C59" s="60"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="49"/>
       <c r="C60" s="60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
       <c r="B61" s="49"/>
       <c r="C61" s="60"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="49"/>
       <c r="C62" s="60"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="49"/>
       <c r="C63" s="60"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="58"/>
       <c r="B64" s="49"/>
       <c r="C64" s="60"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="58"/>
       <c r="B65" s="49"/>
       <c r="C65" s="60"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="49"/>
       <c r="C66" s="60"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="58"/>
       <c r="B67" s="49"/>
       <c r="C67" s="60"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
       <c r="B68" s="49"/>
       <c r="C68" s="60"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="58"/>
       <c r="B69" s="49"/>
       <c r="C69" s="60"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
       <c r="B70" s="49"/>
       <c r="C70" s="60"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="58"/>
       <c r="B71" s="49"/>
       <c r="C71" s="60"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="58"/>
       <c r="B72" s="49"/>
       <c r="C72" s="60"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="58"/>
       <c r="B73" s="49"/>
       <c r="C73" s="60"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="58"/>
       <c r="B74" s="49"/>
       <c r="C74" s="60"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="49"/>
       <c r="C75" s="60"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="58"/>
       <c r="B76" s="49"/>
       <c r="C76" s="60"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="58"/>
       <c r="B77" s="49"/>
       <c r="C77" s="60"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="58"/>
       <c r="B78" s="49"/>
       <c r="C78" s="60"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
       <c r="B79" s="49"/>
       <c r="C79" s="60"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="58"/>
       <c r="B80" s="49"/>
       <c r="C80" s="60"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="58"/>
       <c r="B81" s="49"/>
       <c r="C81" s="60"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="58"/>
       <c r="B82" s="49"/>
       <c r="C82" s="60"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
       <c r="B83" s="49"/>
       <c r="C83" s="60"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="58"/>
       <c r="B84" s="49"/>
       <c r="C84" s="60"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="58"/>
       <c r="B85" s="49"/>
       <c r="C85" s="60"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="58"/>
       <c r="B86" s="49"/>
       <c r="C86" s="60"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="58"/>
       <c r="B87" s="49"/>
       <c r="C87" s="60"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="58"/>
       <c r="B88" s="49"/>
       <c r="C88" s="60"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="58"/>
       <c r="B89" s="49"/>
       <c r="C89" s="60"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
       <c r="B90" s="49"/>
       <c r="C90" s="60"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="58"/>
       <c r="B91" s="49"/>
       <c r="C91" s="60"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="58"/>
       <c r="B92" s="49"/>
       <c r="C92" s="60"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="58"/>
       <c r="B93" s="49"/>
       <c r="C93" s="60"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="58"/>
       <c r="B94" s="49"/>
       <c r="C94" s="60"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="58"/>
       <c r="B95" s="49"/>
       <c r="C95" s="60"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
       <c r="B96" s="49"/>
       <c r="C96" s="60"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="58"/>
       <c r="B97" s="49"/>
       <c r="C97" s="60"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
       <c r="B98" s="49"/>
       <c r="C98" s="60"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="58"/>
       <c r="B99" s="49"/>
       <c r="C99" s="60"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="58"/>
       <c r="B100" s="49"/>
       <c r="C100" s="60"/>
@@ -2995,20 +2993,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -3020,7 +3018,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -3032,7 +3030,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -3051,7 +3049,7 @@
       </c>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -3069,7 +3067,7 @@
       </c>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -3087,7 +3085,7 @@
       </c>
       <c r="M6" s="43"/>
     </row>
-    <row r="7" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="44" t="s">
         <v>66</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="44" t="s">
         <v>60</v>
       </c>
@@ -3143,21 +3141,21 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -3169,7 +3167,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -3181,7 +3179,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3191,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -3205,7 +3203,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -3216,11 +3214,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="40"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
@@ -3246,20 +3244,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -3272,7 +3270,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -3283,7 +3281,7 @@
       <c r="D3" s="47"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -3296,12 +3294,12 @@
       <c r="D4" s="46"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="40"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -3347,12 +3345,12 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="40"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -3364,11 +3362,11 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>46</v>
       </c>
@@ -3394,20 +3392,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -3419,7 +3417,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -3431,7 +3429,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -3443,7 +3441,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -3455,7 +3453,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3467,11 +3465,11 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
@@ -3497,20 +3495,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -3523,7 +3521,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -3535,12 +3533,12 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="40"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -3552,7 +3550,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -3564,12 +3562,12 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="40"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -3581,7 +3579,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -3593,7 +3591,7 @@
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -3605,7 +3603,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -3617,11 +3615,11 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>46</v>
       </c>
@@ -3647,20 +3645,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -3672,11 +3670,11 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>46</v>
       </c>
@@ -3702,19 +3700,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3726,7 +3724,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
@@ -3738,7 +3736,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3748,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
@@ -3762,11 +3760,11 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>46</v>
       </c>
@@ -3775,16 +3773,16 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="29"/>
     </row>
   </sheetData>
@@ -3804,19 +3802,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>97</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>81</v>
       </c>
@@ -3862,7 +3860,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>96</v>
       </c>
@@ -3874,7 +3872,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>98</v>
       </c>
@@ -3886,7 +3884,7 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>99</v>
       </c>
@@ -3903,11 +3901,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>46</v>
       </c>
@@ -3933,28 +3931,28 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -3971,22 +3969,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="29"/>
     </row>
   </sheetData>
@@ -4006,14 +4004,14 @@
       <selection activeCell="B27" sqref="B27:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="64"/>
-    <col min="2" max="2" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="66"/>
+    <col min="1" max="1" width="9.109375" style="64"/>
+    <col min="2" max="2" width="11.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,7 +4020,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="63">
         <v>0</v>
       </c>
@@ -4031,7 +4029,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <f>A2+1</f>
         <v>1</v>
@@ -4041,7 +4039,7 @@
       </c>
       <c r="C3" s="65"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="67">
         <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>2</v>
@@ -4051,7 +4049,7 @@
       </c>
       <c r="C4" s="65"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4061,7 +4059,7 @@
       </c>
       <c r="C5" s="65"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4071,7 +4069,7 @@
       </c>
       <c r="C6" s="65"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="67">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4081,7 +4079,7 @@
       </c>
       <c r="C7" s="65"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="67">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4091,7 +4089,7 @@
       </c>
       <c r="C8" s="65"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="67">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4101,7 +4099,7 @@
       </c>
       <c r="C9" s="65"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4111,7 +4109,7 @@
       </c>
       <c r="C10" s="65"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="67">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4121,7 +4119,7 @@
       </c>
       <c r="C11" s="65"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="67">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4131,526 +4129,526 @@
       </c>
       <c r="C12" s="65"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="67">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="65">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>412000</v>
+        <v>408000</v>
       </c>
       <c r="C13" s="65"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="67">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="65">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>440840</v>
+        <v>444720.00000000006</v>
       </c>
       <c r="C14" s="65"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="67">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>458473.60000000003</v>
+        <v>466956.00000000006</v>
       </c>
       <c r="C15" s="65"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="67">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>495151.48800000007</v>
+        <v>508982.0400000001</v>
       </c>
       <c r="C16" s="65"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="67">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>505054.51776000008</v>
+        <v>519161.68080000009</v>
       </c>
       <c r="C17" s="65"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="67">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>520206.15329280007</v>
+        <v>555502.99845600012</v>
       </c>
       <c r="C18" s="65"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="67">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>546216.46095744008</v>
+        <v>588833.17836336012</v>
       </c>
       <c r="C19" s="65"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="67">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>584451.61322446098</v>
+        <v>612386.50549789448</v>
       </c>
       <c r="C20" s="65"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="67">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>631207.74228241795</v>
+        <v>661377.42593772605</v>
       </c>
       <c r="C21" s="65"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="67">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>643831.89712806628</v>
+        <v>707673.84575336694</v>
       </c>
       <c r="C22" s="65"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="67">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>663146.85404190829</v>
+        <v>721827.32266843424</v>
       </c>
       <c r="C23" s="65"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="67">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>689672.72820358467</v>
+        <v>772355.23525522463</v>
       </c>
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="67">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>724156.36461376399</v>
+        <v>795525.89231288142</v>
       </c>
       <c r="C25" s="65"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="67">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>774847.31013672752</v>
+        <v>867123.22262104077</v>
       </c>
       <c r="C26" s="65"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="67"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="67"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="67"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="67"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="67"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="67"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="67"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="67"/>
       <c r="B37" s="65"/>
       <c r="C37" s="65"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="67"/>
       <c r="B38" s="65"/>
       <c r="C38" s="65"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="67"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="67"/>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="67"/>
       <c r="B44" s="65"/>
       <c r="C44" s="65"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="67"/>
       <c r="B45" s="65"/>
       <c r="C45" s="65"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="67"/>
       <c r="B46" s="65"/>
       <c r="C46" s="65"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="67"/>
       <c r="B47" s="65"/>
       <c r="C47" s="65"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="67"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="67"/>
       <c r="B49" s="65"/>
       <c r="C49" s="65"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="67"/>
       <c r="B50" s="65"/>
       <c r="C50" s="65"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="67"/>
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="67"/>
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="67"/>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="67"/>
       <c r="B55" s="65"/>
       <c r="C55" s="65"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="67"/>
       <c r="B56" s="65"/>
       <c r="C56" s="65"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="67"/>
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="67"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="67"/>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="67"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="67"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="67"/>
       <c r="B63" s="65"/>
       <c r="C63" s="65"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="67"/>
       <c r="B64" s="65"/>
       <c r="C64" s="65"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="67"/>
       <c r="B65" s="65"/>
       <c r="C65" s="65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="67"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="67"/>
       <c r="B68" s="65"/>
       <c r="C68" s="65"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="67"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="67"/>
       <c r="B70" s="65"/>
       <c r="C70" s="65"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="67"/>
       <c r="B71" s="65"/>
       <c r="C71" s="65"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="67"/>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="67"/>
       <c r="B73" s="65"/>
       <c r="C73" s="65"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="67"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="65"/>
       <c r="C75" s="65"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="67"/>
       <c r="B76" s="65"/>
       <c r="C76" s="65"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="67"/>
       <c r="B77" s="65"/>
       <c r="C77" s="65"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="67"/>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="65"/>
       <c r="C79" s="65"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="67"/>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="67"/>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="67"/>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="67"/>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="67"/>
       <c r="B85" s="65"/>
       <c r="C85" s="65"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="67"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="67"/>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="67"/>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="67"/>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="67"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="67"/>
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="67"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="67"/>
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="67"/>
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="67"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="67"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="67"/>
       <c r="B100" s="65"/>
       <c r="C100" s="65"/>
@@ -4671,20 +4669,20 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
@@ -4696,7 +4694,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4706,11 +4704,11 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>46</v>
       </c>
@@ -4732,31 +4730,31 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
@@ -4769,14 +4767,14 @@
       <c r="E2" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="73" t="s">
         <v>149</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -4789,11 +4787,13 @@
       <c r="D3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
@@ -4806,19 +4806,19 @@
       <c r="D4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="75" t="str">
+      <c r="E4" s="74" t="str">
         <f>A3</f>
         <v>highDividend</v>
       </c>
       <c r="F4" s="42">
         <v>5000000</v>
       </c>
-      <c r="G4" s="75" t="str">
+      <c r="G4" s="74" t="str">
         <f>A3</f>
         <v>highDividend</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>134</v>
       </c>
@@ -4831,11 +4831,11 @@
       <c r="D5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="42"/>
-      <c r="G5" s="75"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="74"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
@@ -4848,19 +4848,19 @@
       <c r="D6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="75" t="str">
+      <c r="E6" s="74" t="str">
         <f>A4</f>
         <v>lowVolatility</v>
       </c>
       <c r="F6" s="42">
-        <v>5000000</v>
-      </c>
-      <c r="G6" s="75" t="str">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="74" t="str">
         <f>A4</f>
         <v>lowVolatility</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>131</v>
       </c>
@@ -4873,19 +4873,19 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="75" t="str">
+      <c r="E7" s="74" t="str">
         <f>A6</f>
         <v>indexFund</v>
       </c>
       <c r="F7" s="42">
-        <v>5000000</v>
-      </c>
-      <c r="G7" s="75" t="str">
+        <v>2500000</v>
+      </c>
+      <c r="G7" s="74" t="str">
         <f>A6</f>
         <v>indexFund</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
@@ -4899,11 +4899,11 @@
       <c r="D8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="42"/>
-      <c r="G8" s="75"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
@@ -4916,11 +4916,11 @@
       <c r="D9" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="42"/>
-      <c r="G9" s="75"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
@@ -4933,11 +4933,11 @@
       <c r="D10" s="20">
         <v>529</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="75"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>135</v>
       </c>
@@ -4950,462 +4950,561 @@
       <c r="D11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="75" t="str">
+      <c r="E11" s="74" t="str">
+        <f>A6</f>
+        <v>indexFund</v>
+      </c>
+      <c r="F11" s="42">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="74" t="str">
         <f>A7</f>
         <v>etfFund</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="75"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="20"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="42"/>
-      <c r="G12" s="75"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="75"/>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="20"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="42"/>
-      <c r="G13" s="75"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="75"/>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="20"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="42"/>
-      <c r="G14" s="75"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="75"/>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="20"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="75"/>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="20"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="42"/>
-      <c r="G16" s="75"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="75"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="20"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="75"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="75"/>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="20"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="75"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="75"/>
+      <c r="G18" s="74"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="75"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="75"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="20"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="75"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="75"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="20"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="42"/>
-      <c r="G21" s="75"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="75"/>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="20"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="42"/>
-      <c r="G22" s="75"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="75"/>
+      <c r="G22" s="74"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="20"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="75"/>
+      <c r="G23" s="74"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="20"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="75"/>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="75"/>
+      <c r="G24" s="74"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="20"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="75"/>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="75"/>
+      <c r="G25" s="74"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="20"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="75"/>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="75"/>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="20"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="75"/>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="75"/>
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="20"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="75"/>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="75"/>
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="75"/>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="75"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="20"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="75"/>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="75"/>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="20"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="75"/>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="20"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="75"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="75"/>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="20"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="75"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="75"/>
+      <c r="G33" s="74"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="20"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="75"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="75"/>
+      <c r="G34" s="74"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="20"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="75"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="75"/>
+      <c r="G35" s="74"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="20"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="75"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="75"/>
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="20"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="42"/>
-      <c r="G37" s="75"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="75"/>
+      <c r="G37" s="74"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="20"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="75"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="75"/>
+      <c r="G38" s="74"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="20"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="75"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="75"/>
+      <c r="G39" s="74"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="20"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="75"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="75"/>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="20"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="75"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="75"/>
+      <c r="G41" s="74"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="20"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="42"/>
-      <c r="G42" s="75"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="75"/>
+      <c r="G42" s="74"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="20"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="42"/>
-      <c r="G43" s="75"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="75"/>
+      <c r="G43" s="74"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="20"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="42"/>
-      <c r="G44" s="75"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="75"/>
+      <c r="G44" s="74"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="20"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="75"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="75"/>
+      <c r="G45" s="74"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="20"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="42"/>
-      <c r="G46" s="75"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="75"/>
+      <c r="G46" s="74"/>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D47" s="20"/>
+      <c r="E47" s="74"/>
       <c r="F47" s="42"/>
-      <c r="G47" s="75"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="75"/>
+      <c r="G47" s="74"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="20"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="42"/>
-      <c r="G48" s="75"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="75"/>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="20"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="42"/>
-      <c r="G49" s="75"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="75"/>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="20"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="75"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="75"/>
+      <c r="G50" s="74"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="20"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="42"/>
-      <c r="G51" s="75"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="75"/>
+      <c r="G51" s="74"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="20"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="42"/>
-      <c r="G52" s="75"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="75"/>
+      <c r="G52" s="74"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53" s="20"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="75"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="75"/>
+      <c r="G53" s="74"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D54" s="20"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="42"/>
-      <c r="G54" s="75"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="75"/>
+      <c r="G54" s="74"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D55" s="20"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="42"/>
-      <c r="G55" s="75"/>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="75"/>
+      <c r="G55" s="74"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D56" s="20"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="42"/>
-      <c r="G56" s="75"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E57" s="75"/>
+      <c r="G56" s="74"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" s="20"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="42"/>
-      <c r="G57" s="75"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="75"/>
+      <c r="G57" s="74"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D58" s="20"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="42"/>
-      <c r="G58" s="75"/>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="75"/>
+      <c r="G58" s="74"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D59" s="20"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="42"/>
-      <c r="G59" s="75"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="75"/>
+      <c r="G59" s="74"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D60" s="20"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="42"/>
-      <c r="G60" s="75"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="75"/>
+      <c r="G60" s="74"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="20"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="42"/>
-      <c r="G61" s="75"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="75"/>
+      <c r="G61" s="74"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D62" s="20"/>
+      <c r="E62" s="74"/>
       <c r="F62" s="42"/>
-      <c r="G62" s="75"/>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="75"/>
+      <c r="G62" s="74"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D63" s="20"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="42"/>
-      <c r="G63" s="75"/>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="75"/>
+      <c r="G63" s="74"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64" s="20"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="42"/>
-      <c r="G64" s="75"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="75"/>
+      <c r="G64" s="74"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65" s="20"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="42"/>
-      <c r="G65" s="75"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="75"/>
+      <c r="G65" s="74"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="20"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="42"/>
-      <c r="G66" s="75"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="75"/>
+      <c r="G66" s="74"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67" s="20"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="42"/>
-      <c r="G67" s="75"/>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="75"/>
+      <c r="G67" s="74"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68" s="20"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="42"/>
-      <c r="G68" s="75"/>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="75"/>
+      <c r="G68" s="74"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="20"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="42"/>
-      <c r="G69" s="75"/>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="75"/>
+      <c r="G69" s="74"/>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" s="20"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="42"/>
-      <c r="G70" s="75"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="75"/>
+      <c r="G70" s="74"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="20"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="42"/>
-      <c r="G71" s="75"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="75"/>
+      <c r="G71" s="74"/>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="20"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="42"/>
-      <c r="G72" s="75"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="75"/>
+      <c r="G72" s="74"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="20"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="42"/>
-      <c r="G73" s="75"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="75"/>
+      <c r="G73" s="74"/>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74" s="20"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="42"/>
-      <c r="G74" s="75"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="75"/>
+      <c r="G74" s="74"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75" s="20"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="42"/>
-      <c r="G75" s="75"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="75"/>
+      <c r="G75" s="74"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="20"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="42"/>
-      <c r="G76" s="75"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="75"/>
+      <c r="G76" s="74"/>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="20"/>
+      <c r="E77" s="74"/>
       <c r="F77" s="42"/>
-      <c r="G77" s="75"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E78" s="75"/>
+      <c r="G77" s="74"/>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D78" s="20"/>
+      <c r="E78" s="74"/>
       <c r="F78" s="42"/>
-      <c r="G78" s="75"/>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E79" s="75"/>
+      <c r="G78" s="74"/>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="20"/>
+      <c r="E79" s="74"/>
       <c r="F79" s="42"/>
-      <c r="G79" s="75"/>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80" s="75"/>
+      <c r="G79" s="74"/>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="20"/>
+      <c r="E80" s="74"/>
       <c r="F80" s="42"/>
-      <c r="G80" s="75"/>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E81" s="75"/>
+      <c r="G80" s="74"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D81" s="20"/>
+      <c r="E81" s="74"/>
       <c r="F81" s="42"/>
-      <c r="G81" s="75"/>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E82" s="75"/>
+      <c r="G81" s="74"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D82" s="20"/>
+      <c r="E82" s="74"/>
       <c r="F82" s="42"/>
-      <c r="G82" s="75"/>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E83" s="75"/>
+      <c r="G82" s="74"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83" s="20"/>
+      <c r="E83" s="74"/>
       <c r="F83" s="42"/>
-      <c r="G83" s="75"/>
-    </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E84" s="75"/>
+      <c r="G83" s="74"/>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D84" s="20"/>
+      <c r="E84" s="74"/>
       <c r="F84" s="42"/>
-      <c r="G84" s="75"/>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="75"/>
+      <c r="G84" s="74"/>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D85" s="20"/>
+      <c r="E85" s="74"/>
       <c r="F85" s="42"/>
-      <c r="G85" s="75"/>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="75"/>
+      <c r="G85" s="74"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D86" s="20"/>
+      <c r="E86" s="74"/>
       <c r="F86" s="42"/>
-      <c r="G86" s="75"/>
-    </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E87" s="75"/>
+      <c r="G86" s="74"/>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D87" s="20"/>
+      <c r="E87" s="74"/>
       <c r="F87" s="42"/>
-      <c r="G87" s="75"/>
-    </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E88" s="75"/>
+      <c r="G87" s="74"/>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D88" s="20"/>
+      <c r="E88" s="74"/>
       <c r="F88" s="42"/>
-      <c r="G88" s="75"/>
-    </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E89" s="75"/>
+      <c r="G88" s="74"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D89" s="20"/>
+      <c r="E89" s="74"/>
       <c r="F89" s="42"/>
-      <c r="G89" s="75"/>
-    </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E90" s="75"/>
+      <c r="G89" s="74"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D90" s="20"/>
+      <c r="E90" s="74"/>
       <c r="F90" s="42"/>
-      <c r="G90" s="75"/>
-    </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E91" s="75"/>
+      <c r="G90" s="74"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="20"/>
+      <c r="E91" s="74"/>
       <c r="F91" s="42"/>
-      <c r="G91" s="75"/>
-    </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E92" s="75"/>
+      <c r="G91" s="74"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D92" s="20"/>
+      <c r="E92" s="74"/>
       <c r="F92" s="42"/>
-      <c r="G92" s="75"/>
-    </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E93" s="75"/>
+      <c r="G92" s="74"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D93" s="20"/>
+      <c r="E93" s="74"/>
       <c r="F93" s="42"/>
-      <c r="G93" s="75"/>
-    </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E94" s="75"/>
+      <c r="G93" s="74"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D94" s="20"/>
+      <c r="E94" s="74"/>
       <c r="F94" s="42"/>
-      <c r="G94" s="75"/>
-    </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E95" s="75"/>
+      <c r="G94" s="74"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D95" s="20"/>
+      <c r="E95" s="74"/>
       <c r="F95" s="42"/>
-      <c r="G95" s="75"/>
-    </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E96" s="75"/>
+      <c r="G95" s="74"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D96" s="20"/>
+      <c r="E96" s="74"/>
       <c r="F96" s="42"/>
-      <c r="G96" s="75"/>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E97" s="75"/>
+      <c r="G96" s="74"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D97" s="20"/>
+      <c r="E97" s="74"/>
       <c r="F97" s="42"/>
-      <c r="G97" s="75"/>
-    </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E98" s="75"/>
+      <c r="G97" s="74"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D98" s="20"/>
+      <c r="E98" s="74"/>
       <c r="F98" s="42"/>
-      <c r="G98" s="75"/>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E99" s="75"/>
+      <c r="G98" s="74"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D99" s="20"/>
+      <c r="E99" s="74"/>
       <c r="F99" s="42"/>
-      <c r="G99" s="75"/>
-    </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E100" s="75"/>
+      <c r="G99" s="74"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D100" s="20"/>
+      <c r="E100" s="74"/>
       <c r="F100" s="42"/>
-      <c r="G100" s="75"/>
+      <c r="G100" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D100" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
+      <formula1>"INVEST,SAVINGS,ROTH,TRAD,529"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5421,13 +5520,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5538,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
@@ -5459,7 +5558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
@@ -5479,7 +5578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>134</v>
       </c>
@@ -5499,7 +5598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
@@ -5519,7 +5618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>131</v>
       </c>
@@ -5539,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
@@ -5559,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>24</v>
       </c>
@@ -5579,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>135</v>
       </c>
@@ -5637,15 +5736,15 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -5655,8 +5754,8 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -5670,7 +5769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5683,7 +5782,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
@@ -5696,7 +5795,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>134</v>
       </c>
@@ -5709,7 +5808,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
@@ -5722,7 +5821,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>131</v>
       </c>
@@ -5735,7 +5834,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
@@ -5752,7 +5851,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
@@ -5769,7 +5868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
@@ -5786,7 +5885,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>135</v>
       </c>
@@ -5818,16 +5917,16 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="50" t="s">
         <v>53</v>
       </c>
@@ -5835,7 +5934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -5855,625 +5954,625 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="37"/>
       <c r="D36" s="38"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="37"/>
       <c r="D38" s="38"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="37"/>
       <c r="D43" s="38"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="37"/>
       <c r="D44" s="38"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="37"/>
       <c r="D47" s="38"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="37"/>
       <c r="D48" s="38"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="37"/>
       <c r="D50" s="38"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="18"/>
       <c r="C52" s="37"/>
       <c r="D52" s="38"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="18"/>
       <c r="C53" s="37"/>
       <c r="D53" s="38"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="37"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="37"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="18"/>
       <c r="C56" s="37"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="37"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="18"/>
       <c r="C59" s="37"/>
       <c r="D59" s="38"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="37"/>
       <c r="D60" s="38"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="37"/>
       <c r="D61" s="38"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="37"/>
       <c r="D62" s="38"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="18"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="37"/>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="18"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="37"/>
       <c r="D69" s="38"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="37"/>
       <c r="D71" s="38"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="37"/>
       <c r="D73" s="38"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="18"/>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="37"/>
       <c r="D75" s="38"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
       <c r="C76" s="37"/>
       <c r="D76" s="38"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="37"/>
       <c r="D77" s="38"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="37"/>
       <c r="D78" s="38"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="37"/>
       <c r="D88" s="38"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="37"/>
       <c r="D89" s="38"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="37"/>
       <c r="D90" s="38"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="37"/>
       <c r="D91" s="38"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="37"/>
       <c r="D99" s="38"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="37"/>
       <c r="D100" s="38"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="37"/>
       <c r="D101" s="38"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="37"/>
       <c r="D102" s="38"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="37"/>
       <c r="D103" s="38"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="37"/>
       <c r="D104" s="38"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="37"/>
       <c r="D105" s="38"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="37"/>
@@ -6495,21 +6594,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6526,7 +6625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -6559,7 +6658,7 @@
       <c r="M2"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>-2</v>
       </c>
@@ -6598,7 +6697,7 @@
       </c>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <f>B3</f>
         <v>17</v>
@@ -6633,7 +6732,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f>B4</f>
         <v>27</v>
@@ -6669,7 +6768,7 @@
       <c r="M5"/>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -6689,7 +6788,7 @@
       <c r="M6"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -6709,7 +6808,7 @@
       <c r="M7"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -6729,7 +6828,7 @@
       </c>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -6738,7 +6837,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -6753,7 +6852,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -6762,7 +6861,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -6771,7 +6870,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -6780,7 +6879,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -6789,16 +6888,16 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="36"/>
     </row>
   </sheetData>
@@ -6818,23 +6917,23 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -6846,7 +6945,7 @@
       <c r="I2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
@@ -6859,7 +6958,7 @@
       <c r="I3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>144</v>
       </c>
@@ -6897,7 +6996,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C5" s="71" t="s">
         <v>145</v>
       </c>
@@ -6908,7 +7007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -6927,7 +7026,7 @@
       <c r="I6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -6940,11 +7039,11 @@
       <c r="I7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -6957,7 +7056,7 @@
       <c r="I9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +7069,7 @@
       <c r="I10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -6983,13 +7082,13 @@
       <c r="I11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="40"/>
       <c r="I12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>46</v>
       </c>
@@ -6999,15 +7098,15 @@
       <c r="I13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I16"/>
       <c r="M16"/>
     </row>
@@ -7028,20 +7127,20 @@
       <selection activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
+    <col min="10" max="10" width="21.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7058,7 +7157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -7090,13 +7189,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>-5</v>
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -7129,13 +7228,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>-1</v>
       </c>
       <c r="B4" s="19">
         <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="18">
         <v>32000</v>
@@ -7163,14 +7262,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -7201,14 +7300,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="18">
         <v>30000</v>
@@ -7230,14 +7329,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -7265,14 +7364,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="18">
         <v>22500</v>
@@ -7294,14 +7393,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -7323,14 +7422,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="18">
         <v>22500</v>
@@ -7352,18 +7451,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>50018</v>
+        <v>57665</v>
       </c>
       <c r="D11" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -7382,18 +7481,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>55372</v>
+        <v>41859</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -7412,18 +7511,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>45894</v>
+        <v>51153</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -7442,48 +7541,48 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="str">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="19" t="str">
+        <v>32</v>
+      </c>
+      <c r="B14" s="19">
         <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="18" t="str">
+        <v>40</v>
+      </c>
+      <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D14" s="34" t="str">
+        <v>54262</v>
+      </c>
+      <c r="D14" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F14" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F14" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G14" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G14" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>54431</v>
+        <v>40952</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -7502,154 +7601,154 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="str">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="19" t="str">
+        <v>40</v>
+      </c>
+      <c r="B16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C16" s="18" t="str">
+        <v>47</v>
+      </c>
+      <c r="C16" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D16" s="34" t="str">
+        <v>57210</v>
+      </c>
+      <c r="D16" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F16" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F16" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G16" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G16" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="str">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="19" t="str">
+        <v>43</v>
+      </c>
+      <c r="B17" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C17" s="18" t="str">
+        <v>49</v>
+      </c>
+      <c r="C17" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D17" s="34" t="str">
+        <v>54690</v>
+      </c>
+      <c r="D17" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F17" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F17" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G17" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G17" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="str">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="19" t="str">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C18" s="18" t="str">
+        <v>55</v>
+      </c>
+      <c r="C18" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D18" s="34" t="str">
+        <v>41708</v>
+      </c>
+      <c r="D18" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F18" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F18" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G18" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G18" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="str">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="19" t="str">
+        <v>49</v>
+      </c>
+      <c r="B19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C19" s="18" t="str">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D19" s="34" t="str">
+        <v>58520</v>
+      </c>
+      <c r="D19" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F19" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F19" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G19" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G19" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="str">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="19" t="str">
+        <v>55</v>
+      </c>
+      <c r="B20" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C20" s="18" t="str">
+        <v>60</v>
+      </c>
+      <c r="C20" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D20" s="34" t="str">
+        <v>46908</v>
+      </c>
+      <c r="D20" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F20" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F20" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G20" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G20" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>

--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Desktop\Projects\personalFinances\python\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B4593-2DFA-4385-BED6-1A40431ADAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BBD7C-9D24-4FE5-8651-49346E56C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,22 @@
     <sheet name="Allocations" sheetId="2" r:id="rId4"/>
     <sheet name="Earnings" sheetId="3" r:id="rId5"/>
     <sheet name="Loans" sheetId="21" r:id="rId6"/>
-    <sheet name="Home" sheetId="6" r:id="rId7"/>
-    <sheet name="Rent" sheetId="7" r:id="rId8"/>
-    <sheet name="Car" sheetId="5" r:id="rId9"/>
-    <sheet name="Food" sheetId="8" r:id="rId10"/>
-    <sheet name="Entertain" sheetId="11" r:id="rId11"/>
-    <sheet name="Personal Care" sheetId="10" r:id="rId12"/>
-    <sheet name="Health Care" sheetId="9" r:id="rId13"/>
-    <sheet name="Pet" sheetId="12" r:id="rId14"/>
-    <sheet name="Holiday" sheetId="13" r:id="rId15"/>
-    <sheet name="Charity" sheetId="14" r:id="rId16"/>
-    <sheet name="Education" sheetId="15" r:id="rId17"/>
-    <sheet name="Vacation" sheetId="16" r:id="rId18"/>
-    <sheet name="Major" sheetId="17" r:id="rId19"/>
-    <sheet name="Random" sheetId="18" r:id="rId20"/>
+    <sheet name="MONTHLY" sheetId="22" r:id="rId7"/>
+    <sheet name="Home" sheetId="6" r:id="rId8"/>
+    <sheet name="Rent" sheetId="7" r:id="rId9"/>
+    <sheet name="Car" sheetId="5" r:id="rId10"/>
+    <sheet name="Food" sheetId="8" r:id="rId11"/>
+    <sheet name="Shopping" sheetId="23" r:id="rId12"/>
+    <sheet name="Activities" sheetId="24" r:id="rId13"/>
+    <sheet name="Subscriptions" sheetId="11" r:id="rId14"/>
+    <sheet name="Personal Care" sheetId="10" r:id="rId15"/>
+    <sheet name="Gifts" sheetId="13" r:id="rId16"/>
+    <sheet name="Health Care" sheetId="9" r:id="rId17"/>
+    <sheet name="Pet" sheetId="12" r:id="rId18"/>
+    <sheet name="Education" sheetId="15" r:id="rId19"/>
+    <sheet name="Vacation" sheetId="16" r:id="rId20"/>
+    <sheet name="Major" sheetId="17" r:id="rId21"/>
+    <sheet name="Random" sheetId="18" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>Years</t>
   </si>
@@ -225,9 +227,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>TV</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -237,9 +236,6 @@
     <t>Beach</t>
   </si>
   <si>
-    <t>Chase</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -306,36 +302,9 @@
     <t>Toys</t>
   </si>
   <si>
-    <t>Caretaker</t>
-  </si>
-  <si>
     <t>annually</t>
   </si>
   <si>
-    <t>Family Birthday</t>
-  </si>
-  <si>
-    <t>Family Holidays</t>
-  </si>
-  <si>
-    <t>Children Holidays</t>
-  </si>
-  <si>
-    <t>Children Birthday</t>
-  </si>
-  <si>
-    <t>Personal Birthday</t>
-  </si>
-  <si>
-    <t>Personal Holidays</t>
-  </si>
-  <si>
-    <t>Personal Valentines</t>
-  </si>
-  <si>
-    <t>Personal Anniversary</t>
-  </si>
-  <si>
     <t>annual per child</t>
   </si>
   <si>
@@ -505,6 +474,60 @@
   </si>
   <si>
     <t>Underflow</t>
+  </si>
+  <si>
+    <t>Birthdays</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Becca</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Social Events</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Books &amp; Movies</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Software</t>
+  </si>
+  <si>
+    <t>General Merchandise</t>
+  </si>
+  <si>
+    <t>Decorations &amp; Furnishing</t>
+  </si>
+  <si>
+    <t>Tools &amp; Appliances</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Lawn &amp; Garden</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Home Improvement</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1716,8 @@
   </sheetPr>
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1739,7 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="45">
@@ -1736,7 +1759,7 @@
     <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="45">
@@ -1748,7 +1771,7 @@
     </row>
     <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="19">
@@ -1769,7 +1792,7 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="45">
@@ -1790,7 +1813,7 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="45">
@@ -1811,7 +1834,7 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="45">
@@ -1831,11 +1854,11 @@
     <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11"/>
@@ -1850,11 +1873,11 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="45" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1870,19 +1893,19 @@
     <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="68" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B15" s="49"/>
       <c r="C15" s="12">
@@ -1903,7 +1926,7 @@
     </row>
     <row r="16" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="42">
@@ -1924,7 +1947,7 @@
     </row>
     <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="42">
@@ -1990,7 +2013,7 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>44</v>
@@ -2007,7 +2030,7 @@
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="7">
@@ -2018,7 +2041,7 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="45">
@@ -2029,7 +2052,7 @@
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>44</v>
@@ -2047,7 +2070,7 @@
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="4">
@@ -2060,7 +2083,7 @@
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="4">
@@ -2073,10 +2096,10 @@
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4">
         <v>0.35</v>
@@ -2421,6 +2444,647 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>-5</v>
+      </c>
+      <c r="B3" s="19">
+        <f ca="1">A3+RANDBETWEEN(5,9)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>23500</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="12">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12">
+        <v>75</v>
+      </c>
+      <c r="M3" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="19">
+        <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="34">
+        <f>10000/C4</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E4" s="34">
+        <v>-0.15</v>
+      </c>
+      <c r="F4" s="37">
+        <v>4</v>
+      </c>
+      <c r="G4" s="38">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="34">
+        <f>IF(ISNUMBER(C5),20%,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="34">
+        <f>IF(ISNUMBER(D5),-15%,"")</f>
+        <v>-0.15</v>
+      </c>
+      <c r="F5" s="61">
+        <f>IF(ISNUMBER(E5),5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="38">
+        <f>IF(ISNUMBER(F5),1.9%,"")</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" ref="D6:D20" si="1">IF(ISNUMBER(C6),20%,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" ref="E6:E20" si="2">IF(ISNUMBER(D6),-15%,"")</f>
+        <v>-0.15</v>
+      </c>
+      <c r="F6" s="61">
+        <f t="shared" ref="F6:F20" si="3">IF(ISNUMBER(E6),5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" ref="G6:G20" si="4">IF(ISNUMBER(F6),1.9%,"")</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="18">
+        <v>35000</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F7" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
+        <v>10</v>
+      </c>
+      <c r="B8" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="18">
+        <v>22500</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
+        <v>12</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="18">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F9" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
+        <v>18</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="18">
+        <v>22500</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F10" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
+        <v>17</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="18">
+        <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
+        <v>51575</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F11" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
+        <v>26</v>
+      </c>
+      <c r="B12" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
+        <v>56620</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F12" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
+        <v>22</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>42612</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F13" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
+        <v>33</v>
+      </c>
+      <c r="B14" s="19">
+        <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
+        <v>39</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>41199</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F14" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
+        <v>29</v>
+      </c>
+      <c r="B15" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>40175</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F15" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
+        <v>39</v>
+      </c>
+      <c r="B16" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>45613</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F16" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
+        <v>36</v>
+      </c>
+      <c r="B17" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>50443</v>
+      </c>
+      <c r="D17" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F17" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
+        <v>48</v>
+      </c>
+      <c r="B18" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>43714</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F18" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
+        <v>45</v>
+      </c>
+      <c r="B19" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>52321</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F19" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
+        <v>54</v>
+      </c>
+      <c r="B20" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>57859</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F20" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2428,7 +3092,7 @@
   <dimension ref="A2:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +3122,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2487,7 +3151,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
@@ -2982,7 +3646,1125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F971-9022-47EF-A46E-8DC0E4F5AA23}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="59">
+        <v>100</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60">
+        <v>30</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59">
+        <v>100</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60">
+        <v>50</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="60">
+        <v>400</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="60">
+        <v>400</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="60"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="60"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="60"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="60"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="60"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="60"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="60"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="58"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="58"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="60"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="60"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="60"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="60"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="58"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="60"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="58"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="58"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="58"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="58"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="58"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="58"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="60"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="60"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="58"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="58"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="58"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="60"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="60"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="58"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="60"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="60"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="58"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="60"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="58"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="60"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="58"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="60"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="60"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="60"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="60"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="60"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="60"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="60"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="60"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44382-030D-4D66-91A6-AD13ADE699AE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>200</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>200</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="59"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="60"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="60"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="60"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="60"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="60"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="60"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="60"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="60"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="60"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="60"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="58"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="58"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="60"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="60"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="60"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="60"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="58"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="60"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="58"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="58"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="58"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="58"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="58"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="58"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="60"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="60"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="58"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="58"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="58"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="60"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="60"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="58"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="60"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="60"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="58"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="60"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="58"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="60"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="58"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="60"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="60"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="60"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="60"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="60"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="60"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="60"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="60"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2990,20 +4772,17 @@
   <dimension ref="A2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="3" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="31" customWidth="1"/>
+    <col min="10" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3032,7 +4811,7 @@
     </row>
     <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -3051,7 +4830,7 @@
     </row>
     <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
@@ -3065,11 +4844,14 @@
       <c r="E5" s="43">
         <v>10</v>
       </c>
+      <c r="F5" s="42">
+        <v>12.5</v>
+      </c>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>3</v>
@@ -3077,23 +4859,21 @@
       <c r="C6" s="18">
         <v>18.333333333333332</v>
       </c>
-      <c r="D6" s="42">
-        <v>12.5</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="D6" s="43">
         <v>52.083333333333336</v>
       </c>
+      <c r="E6" s="43"/>
       <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3101,28 +4881,29 @@
         <v>46</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E9" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,15 +4911,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:M8"/>
+  <dimension ref="A2:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,7 +4928,7 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
@@ -3155,9 +4936,9 @@
     <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>3</v>
@@ -3165,11 +4946,16 @@
       <c r="C2" s="12">
         <v>50</v>
       </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -3179,33 +4965,33 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>3</v>
@@ -3213,19 +4999,494 @@
       <c r="C6" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="60"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="60"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="60"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="60"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="60"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="60"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="60"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="60"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="58"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="58"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="60"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="60"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="60"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="60"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="58"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="60"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="58"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="58"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="58"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="58"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="58"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="58"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="60"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="60"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="58"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="58"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="58"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="60"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="60"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="58"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="60"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="60"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="58"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="60"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="58"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="60"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="58"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="60"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="60"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="60"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="60"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="60"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="60"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="60"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="60"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="60"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="60"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="58"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3233,7 +5494,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="C5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="31" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="18">
+        <v>200</v>
+      </c>
+      <c r="D4" s="18">
+        <v>200</v>
+      </c>
+      <c r="E4" s="18">
+        <v>300</v>
+      </c>
+      <c r="F4" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="18">
+        <v>300</v>
+      </c>
+      <c r="D5" s="18">
+        <v>300</v>
+      </c>
+      <c r="E5" s="18">
+        <v>300</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3259,7 +5624,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>52</v>
@@ -3272,7 +5637,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="7">
@@ -3283,7 +5648,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>52</v>
@@ -3301,7 +5666,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>44</v>
@@ -3318,7 +5683,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>44</v>
@@ -3335,7 +5700,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>3</v>
@@ -3352,10 +5717,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="45" t="b">
         <v>1</v>
@@ -3371,7 +5736,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E12" s="29"/>
     </row>
@@ -3381,15 +5746,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:M8"/>
+  <dimension ref="A2:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3405,9 +5770,9 @@
     <col min="13" max="13" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>3</v>
@@ -3415,11 +5780,16 @@
       <c r="C2" s="12">
         <v>350</v>
       </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -3429,9 +5799,9 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -3441,42 +5811,505 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
+      <c r="C5" s="27">
+        <v>100</v>
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="27">
-        <v>100</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="59"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="59"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>135</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="60"/>
       <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="60"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="60"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="60"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="60"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="60"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="60"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="60"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="60"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="60"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="58"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="58"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="60"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="60"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="60"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="60"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="58"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="60"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="58"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="58"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="58"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="58"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="58"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="58"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="60"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="60"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="58"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="58"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="58"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="60"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="60"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="58"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="60"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="60"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="58"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="60"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="58"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="60"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="58"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="60"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="60"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="60"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="60"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="60"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="60"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="60"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="60"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="60"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="60"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="58"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,212 +6317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="12">
-        <f>500</f>
-        <v>500</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="12">
-        <v>800</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="40"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="12">
-        <v>200</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="12">
-        <v>500</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="40"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="27">
-        <v>100</v>
-      </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="27">
-        <v>200</v>
-      </c>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="27">
-        <v>100</v>
-      </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="27">
-        <v>150</v>
-      </c>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864BA6EB-7E83-4114-B966-D925573D14C8}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3717,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C2" s="12">
         <v>50000</v>
@@ -3729,7 +6357,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C3" s="12">
         <v>12000</v>
@@ -3741,7 +6369,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12">
         <v>2000</v>
@@ -3753,7 +6381,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12">
         <v>1500</v>
@@ -3791,7 +6419,672 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="64"/>
+    <col min="2" max="2" width="11.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="63">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="67">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="65">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="67">
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="65">
+        <v>0</v>
+      </c>
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="67">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="65">
+        <v>0</v>
+      </c>
+      <c r="C5" s="65"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="65">
+        <v>70000</v>
+      </c>
+      <c r="C6" s="65"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="67">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="65">
+        <v>75000</v>
+      </c>
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="67">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="65">
+        <v>80000</v>
+      </c>
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="67">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="65">
+        <v>85000</v>
+      </c>
+      <c r="C9" s="65"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="67">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="65">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="65"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="65">
+        <v>95000</v>
+      </c>
+      <c r="C11" s="65"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="65">
+        <v>400000</v>
+      </c>
+      <c r="C12" s="65"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="67">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="65">
+        <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
+        <v>416000</v>
+      </c>
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="67">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="65">
+        <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
+        <v>445120</v>
+      </c>
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="67">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>467376</v>
+      </c>
+      <c r="C15" s="65"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="67">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>490744.80000000005</v>
+      </c>
+      <c r="C16" s="65"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="67">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>505467.14400000009</v>
+      </c>
+      <c r="C17" s="65"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>530740.50120000006</v>
+      </c>
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>541355.31122400006</v>
+      </c>
+      <c r="C19" s="65"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="67">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>563009.52367296012</v>
+      </c>
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="67">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>585529.90461987851</v>
+      </c>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>608951.10080467362</v>
+      </c>
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="67">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>645488.16685295408</v>
+      </c>
+      <c r="C23" s="65"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="67">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>677762.57519560179</v>
+      </c>
+      <c r="C24" s="65"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="67">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>718428.32970733789</v>
+      </c>
+      <c r="C25" s="65"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>790271.16267807176</v>
+      </c>
+      <c r="C26" s="65"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="67"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="67"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="67"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="67"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="67"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="67"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="67"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="67"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="67"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="67"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="67"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="67"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="67"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="67"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="67"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="67"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="67"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="67"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="67"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="67"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="67"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="67"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="67"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="67"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="67"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="67"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="67"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="67"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="67"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="67"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="67"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="67"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="67"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="67"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="67"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="67"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="67"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="67"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="67"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="67"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="67"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="67"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="67"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="67"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="67"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="67"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="67"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="67"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="67"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="67"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="67"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="67"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="67"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="67"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="67"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="67"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="67"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="67"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="67"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="67"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="67"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="67"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="67"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="67"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="67"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3623E-739B-4E92-BD1F-A85E8AE93729}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3816,10 +7109,10 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C2" s="12">
         <v>300</v>
@@ -3833,10 +7126,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C3" s="12">
         <v>175</v>
@@ -3850,10 +7143,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C4" s="12">
         <v>200</v>
@@ -3862,10 +7155,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12">
         <v>50</v>
@@ -3874,10 +7167,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12">
         <v>60</v>
@@ -3886,7 +7179,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>44</v>
@@ -3910,7 +7203,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E10" s="29"/>
     </row>
@@ -3920,7 +7213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4B664-69DF-44D6-A7D5-A5BD33641629}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3954,10 +7247,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>36</v>
@@ -3966,7 +7259,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3993,672 +7286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="64"/>
-    <col min="2" max="2" width="11.5546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="66"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="63">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="67">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="65">
-        <v>0</v>
-      </c>
-      <c r="C3" s="65"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="67">
-        <f t="shared" ref="A4:A26" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="65">
-        <v>0</v>
-      </c>
-      <c r="C4" s="65"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="67">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="65">
-        <v>0</v>
-      </c>
-      <c r="C5" s="65"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="67">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="65">
-        <v>70000</v>
-      </c>
-      <c r="C6" s="65"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="67">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="65">
-        <v>75000</v>
-      </c>
-      <c r="C7" s="65"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="67">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="65">
-        <v>80000</v>
-      </c>
-      <c r="C8" s="65"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="67">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="65">
-        <v>85000</v>
-      </c>
-      <c r="C9" s="65"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="67">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="65">
-        <v>90000</v>
-      </c>
-      <c r="C10" s="65"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="67">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="65">
-        <v>95000</v>
-      </c>
-      <c r="C11" s="65"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="67">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="65">
-        <v>400000</v>
-      </c>
-      <c r="C12" s="65"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="67">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="65">
-        <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>408000</v>
-      </c>
-      <c r="C13" s="65"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="67">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="65">
-        <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>444720.00000000006</v>
-      </c>
-      <c r="C14" s="65"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="67">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>466956.00000000006</v>
-      </c>
-      <c r="C15" s="65"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="67">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>508982.0400000001</v>
-      </c>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="67">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>519161.68080000009</v>
-      </c>
-      <c r="C17" s="65"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="67">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>555502.99845600012</v>
-      </c>
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="67">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>588833.17836336012</v>
-      </c>
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="67">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>612386.50549789448</v>
-      </c>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="67">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>661377.42593772605</v>
-      </c>
-      <c r="C21" s="65"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="67">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>707673.84575336694</v>
-      </c>
-      <c r="C22" s="65"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="67">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>721827.32266843424</v>
-      </c>
-      <c r="C23" s="65"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="67">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>772355.23525522463</v>
-      </c>
-      <c r="C24" s="65"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="67">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>795525.89231288142</v>
-      </c>
-      <c r="C25" s="65"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="67">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>867123.22262104077</v>
-      </c>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="67"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="67"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="67"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="67"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="67"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="67"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="67"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="67"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="67"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="67"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="67"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="67"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="67"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="67"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="67"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="67"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="67"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="67"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="67"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="67"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="67"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="67"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="67"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="67"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="67"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="67"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="67"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="67"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="67"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="67"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="67"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="67"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="67"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="67"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="67"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="67"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="67"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="67"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="67"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="67"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="67"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24977A-EA5F-4BA3-9B84-B620814A1B9D}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -4666,7 +7294,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4684,13 +7312,13 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="12">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="29"/>
     </row>
@@ -4713,7 +7341,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E5" s="29"/>
     </row>
@@ -4731,7 +7359,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4765,13 +7393,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4785,12 +7413,12 @@
         <v>31</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="42"/>
       <c r="G3" s="74" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4804,7 +7432,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E4" s="74" t="str">
         <f>A3</f>
@@ -4820,7 +7448,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B5" s="26">
         <v>3500</v>
@@ -4829,7 +7457,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="42"/>
@@ -4846,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E6" s="74" t="str">
         <f>A4</f>
@@ -4862,7 +7490,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B7" s="26">
         <v>6000</v>
@@ -4871,7 +7499,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E7" s="74" t="str">
         <f>A6</f>
@@ -4897,7 +7525,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="42"/>
@@ -4914,7 +7542,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="42"/>
@@ -4939,7 +7567,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B11" s="26">
         <v>80000</v>
@@ -5517,7 +8145,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5580,7 +8208,7 @@
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B4" s="22">
         <v>10</v>
@@ -5620,7 +8248,7 @@
     </row>
     <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B6" s="22">
         <v>30</v>
@@ -5702,7 +8330,7 @@
     </row>
     <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B10" s="22">
         <v>250</v>
@@ -5797,7 +8425,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B5" s="24">
         <v>0.04</v>
@@ -5823,7 +8451,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B7" s="24">
         <v>0.1</v>
@@ -5887,7 +8515,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B11" s="24">
         <v>0.03</v>
@@ -5936,10 +8564,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -5951,7 +8579,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6584,6 +9212,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5E4A8C-AC10-43B6-BDCF-45FA095A9419}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228208F-908D-44CE-BB18-24656B27C42F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6591,7 +9236,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6776,7 +9421,7 @@
       <c r="E6" s="38"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="49" t="s">
@@ -6796,7 +9441,7 @@
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="49" t="s">
@@ -6816,8 +9461,8 @@
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
       <c r="G8" s="38"/>
-      <c r="I8" s="32" t="s">
-        <v>130</v>
+      <c r="I8" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>3</v>
@@ -6836,6 +9481,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="37"/>
       <c r="G9" s="38"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
@@ -6845,11 +9491,11 @@
       <c r="E10" s="38"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -6906,7 +9552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6935,10 +9581,10 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -6947,7 +9593,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -6960,7 +9606,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -6998,13 +9644,13 @@
     </row>
     <row r="5" spans="1:26" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C5" s="71" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -7093,7 +9739,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I13"/>
       <c r="M13"/>
@@ -7109,647 +9755,6 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I16"/>
       <c r="M16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>-5</v>
-      </c>
-      <c r="B3" s="19">
-        <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
-        <v>23500</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="12">
-        <v>25</v>
-      </c>
-      <c r="L3" s="12">
-        <v>75</v>
-      </c>
-      <c r="M3" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="19">
-        <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="18">
-        <v>32000</v>
-      </c>
-      <c r="D4" s="34">
-        <f>10000/C4</f>
-        <v>0.3125</v>
-      </c>
-      <c r="E4" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F4" s="37">
-        <v>4</v>
-      </c>
-      <c r="G4" s="38">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="34">
-        <f>IF(ISNUMBER(C5),20%,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="34">
-        <f>IF(ISNUMBER(D5),-15%,"")</f>
-        <v>-0.15</v>
-      </c>
-      <c r="F5" s="61">
-        <f>IF(ISNUMBER(E5),5,"")</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="38">
-        <f>IF(ISNUMBER(F5),1.9%,"")</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="34">
-        <f t="shared" ref="D6:D20" si="1">IF(ISNUMBER(C6),20%,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="34">
-        <f t="shared" ref="E6:E20" si="2">IF(ISNUMBER(D6),-15%,"")</f>
-        <v>-0.15</v>
-      </c>
-      <c r="F6" s="61">
-        <f t="shared" ref="F6:F20" si="3">IF(ISNUMBER(E6),5,"")</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="38">
-        <f t="shared" ref="G6:G20" si="4">IF(ISNUMBER(F6),1.9%,"")</f>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>9</v>
-      </c>
-      <c r="B7" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C7" s="18">
-        <v>35000</v>
-      </c>
-      <c r="D7" s="34">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="34">
-        <f t="shared" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F7" s="61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="38">
-        <f t="shared" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>10</v>
-      </c>
-      <c r="B8" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C8" s="18">
-        <v>22500</v>
-      </c>
-      <c r="D8" s="34">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="34">
-        <f t="shared" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F8" s="61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="38">
-        <f t="shared" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>17</v>
-      </c>
-      <c r="B9" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C9" s="18">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="34">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="34">
-        <f t="shared" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F9" s="61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="38">
-        <f t="shared" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>18</v>
-      </c>
-      <c r="B10" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C10" s="18">
-        <v>22500</v>
-      </c>
-      <c r="D10" s="34">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="34">
-        <f t="shared" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F10" s="61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G10" s="38">
-        <f t="shared" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>24</v>
-      </c>
-      <c r="B11" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C11" s="18">
-        <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>57665</v>
-      </c>
-      <c r="D11" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F11" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>26</v>
-      </c>
-      <c r="B12" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>41859</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F12" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>33</v>
-      </c>
-      <c r="B13" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>51153</v>
-      </c>
-      <c r="D13" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F13" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>32</v>
-      </c>
-      <c r="B14" s="19">
-        <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>40</v>
-      </c>
-      <c r="C14" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>54262</v>
-      </c>
-      <c r="D14" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F14" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
-        <v>38</v>
-      </c>
-      <c r="B15" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="C15" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>40952</v>
-      </c>
-      <c r="D15" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F15" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
-        <v>40</v>
-      </c>
-      <c r="B16" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>57210</v>
-      </c>
-      <c r="D16" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F16" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
-        <v>43</v>
-      </c>
-      <c r="B17" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="C17" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>54690</v>
-      </c>
-      <c r="D17" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F17" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
-        <v>47</v>
-      </c>
-      <c r="B18" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>41708</v>
-      </c>
-      <c r="D18" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F18" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
-        <v>49</v>
-      </c>
-      <c r="B19" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>58520</v>
-      </c>
-      <c r="D19" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F19" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
-        <v>55</v>
-      </c>
-      <c r="B20" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>46908</v>
-      </c>
-      <c r="D20" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F20" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BBD7C-9D24-4FE5-8651-49346E56C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFECC6-3F0A-4185-91B5-3A9680F51896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
     <sheet name="Salary" sheetId="20" r:id="rId2"/>
-    <sheet name="Accounts" sheetId="4" r:id="rId3"/>
-    <sheet name="Allocations" sheetId="2" r:id="rId4"/>
-    <sheet name="Earnings" sheetId="3" r:id="rId5"/>
-    <sheet name="Loans" sheetId="21" r:id="rId6"/>
-    <sheet name="MONTHLY" sheetId="22" r:id="rId7"/>
-    <sheet name="Home" sheetId="6" r:id="rId8"/>
-    <sheet name="Rent" sheetId="7" r:id="rId9"/>
-    <sheet name="Car" sheetId="5" r:id="rId10"/>
-    <sheet name="Food" sheetId="8" r:id="rId11"/>
-    <sheet name="Shopping" sheetId="23" r:id="rId12"/>
-    <sheet name="Activities" sheetId="24" r:id="rId13"/>
-    <sheet name="Subscriptions" sheetId="11" r:id="rId14"/>
-    <sheet name="Personal Care" sheetId="10" r:id="rId15"/>
-    <sheet name="Gifts" sheetId="13" r:id="rId16"/>
-    <sheet name="Health Care" sheetId="9" r:id="rId17"/>
-    <sheet name="Pet" sheetId="12" r:id="rId18"/>
-    <sheet name="Education" sheetId="15" r:id="rId19"/>
-    <sheet name="Vacation" sheetId="16" r:id="rId20"/>
-    <sheet name="Major" sheetId="17" r:id="rId21"/>
-    <sheet name="Random" sheetId="18" r:id="rId22"/>
+    <sheet name="Salary (Past)" sheetId="26" r:id="rId3"/>
+    <sheet name="Accounts" sheetId="4" r:id="rId4"/>
+    <sheet name="Allocations" sheetId="2" r:id="rId5"/>
+    <sheet name="Earnings" sheetId="3" r:id="rId6"/>
+    <sheet name="Loans" sheetId="21" r:id="rId7"/>
+    <sheet name="MONTHLY" sheetId="22" r:id="rId8"/>
+    <sheet name="Home" sheetId="6" r:id="rId9"/>
+    <sheet name="Rent" sheetId="7" r:id="rId10"/>
+    <sheet name="Car" sheetId="5" r:id="rId11"/>
+    <sheet name="Food" sheetId="8" r:id="rId12"/>
+    <sheet name="Shopping" sheetId="23" r:id="rId13"/>
+    <sheet name="Activities" sheetId="24" r:id="rId14"/>
+    <sheet name="Subscriptions" sheetId="11" r:id="rId15"/>
+    <sheet name="Personal Care" sheetId="10" r:id="rId16"/>
+    <sheet name="Gifts" sheetId="13" r:id="rId17"/>
+    <sheet name="Health Care" sheetId="9" r:id="rId18"/>
+    <sheet name="Pet" sheetId="12" r:id="rId19"/>
+    <sheet name="Education" sheetId="15" r:id="rId20"/>
+    <sheet name="Vacation" sheetId="16" r:id="rId21"/>
+    <sheet name="Major" sheetId="25" r:id="rId22"/>
+    <sheet name="Random" sheetId="18" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="162">
   <si>
     <t>Years</t>
   </si>
@@ -365,12 +366,6 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Previous Salary (#1)</t>
-  </si>
-  <si>
-    <t>Previous Salary (#2)</t>
-  </si>
-  <si>
     <t>JOINT</t>
   </si>
   <si>
@@ -528,6 +523,24 @@
   </si>
   <si>
     <t>Home Improvement</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>HSA Deposit</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Previous Salary</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1159,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,6 +1361,9 @@
     <xf numFmtId="165" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1714,10 +1730,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1808,7 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="45">
@@ -1813,7 +1829,7 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="45">
@@ -1834,7 +1850,7 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="45">
@@ -1858,7 +1874,7 @@
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11"/>
@@ -1877,7 +1893,7 @@
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1893,14 +1909,14 @@
     <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1924,186 +1940,137 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="42">
-        <v>98049</v>
-      </c>
-      <c r="D16" s="42">
-        <v>99027</v>
-      </c>
-      <c r="E16" s="42">
-        <v>114805</v>
-      </c>
-      <c r="F16" s="42">
-        <v>109016</v>
-      </c>
-      <c r="G16" s="42">
-        <v>119800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="42">
-        <v>88428</v>
-      </c>
-      <c r="D17" s="42">
-        <v>80354</v>
-      </c>
-      <c r="E17" s="42">
-        <v>94175</v>
-      </c>
-      <c r="F17" s="42">
-        <v>93107</v>
-      </c>
-      <c r="G17" s="42">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="56">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="56">
-        <v>2020</v>
-      </c>
-      <c r="E18" s="56">
-        <v>2021</v>
-      </c>
-      <c r="F18" s="56">
-        <v>2022</v>
-      </c>
-      <c r="G18" s="56">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="62">
+        <v>-0.02</v>
+      </c>
+      <c r="G17" s="62">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="62">
-        <v>-0.02</v>
-      </c>
-      <c r="G19" s="62">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="62">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="45">
+        <v>3</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="45">
-        <v>3</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D23" s="55">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="49"/>
+      <c r="C24" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D24" s="55">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="49" t="s">
+        <v>112</v>
+      </c>
       <c r="C25" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D25" s="55">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D26" s="55">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="4">
         <v>0.35</v>
       </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="20"/>
@@ -2420,14 +2387,6 @@
     <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
-    </row>
-    <row r="107" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-    </row>
-    <row r="108" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2444,6 +2403,216 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="I2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2200</v>
+      </c>
+      <c r="I3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>75</v>
+      </c>
+      <c r="D4" s="42">
+        <v>50</v>
+      </c>
+      <c r="E4" s="42">
+        <v>25</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="I6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>150</v>
+      </c>
+      <c r="I9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+      <c r="I11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="40"/>
+      <c r="I12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I16"/>
+      <c r="M16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2522,7 +2691,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -2561,7 +2730,7 @@
       </c>
       <c r="B4" s="19">
         <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18">
         <v>32000</v>
@@ -2592,11 +2761,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -2630,11 +2799,11 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="18">
         <v>30000</v>
@@ -2659,11 +2828,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2688,17 +2857,17 @@
         <v>46</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="18">
         <v>22500</v>
@@ -2723,11 +2892,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2752,11 +2921,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="18">
         <v>22500</v>
@@ -2781,15 +2950,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>51575</v>
+        <v>47876</v>
       </c>
       <c r="D11" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2811,15 +2980,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>56620</v>
+        <v>43379</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2841,15 +3010,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>42612</v>
+        <v>47542</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2871,15 +3040,15 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>41199</v>
+        <v>54018</v>
       </c>
       <c r="D14" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2901,15 +3070,15 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>40175</v>
+        <v>40140</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2931,15 +3100,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>45613</v>
+        <v>50813</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2961,15 +3130,15 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B17" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>50443</v>
+        <v>43792</v>
       </c>
       <c r="D17" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2991,15 +3160,15 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43714</v>
+        <v>40956</v>
       </c>
       <c r="D18" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3021,15 +3190,15 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>52321</v>
+        <v>47677</v>
       </c>
       <c r="D19" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3049,33 +3218,33 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="17" t="str">
         <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
-        <v>54</v>
-      </c>
-      <c r="B20" s="19">
+        <v/>
+      </c>
+      <c r="B20" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="C20" s="18">
+        <v/>
+      </c>
+      <c r="C20" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>57859</v>
-      </c>
-      <c r="D20" s="34">
+        <v/>
+      </c>
+      <c r="D20" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="34">
+        <v/>
+      </c>
+      <c r="E20" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F20" s="61">
+        <v/>
+      </c>
+      <c r="F20" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="38">
+        <v/>
+      </c>
+      <c r="G20" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3092,7 +3261,7 @@
   <dimension ref="A2:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3291,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,14 +3320,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="59">
-        <f>(20*4+11)*4</f>
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="E5" s="29"/>
     </row>
@@ -3646,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F971-9022-47EF-A46E-8DC0E4F5AA23}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3664,7 +3832,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>3</v>
@@ -3676,12 +3844,12 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -3693,7 +3861,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -3705,7 +3873,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>3</v>
@@ -3717,7 +3885,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>3</v>
@@ -3729,7 +3897,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>3</v>
@@ -3741,7 +3909,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>3</v>
@@ -4217,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44382-030D-4D66-91A6-AD13ADE699AE}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -4235,7 +4403,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>3</v>
@@ -4247,12 +4415,12 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -4264,7 +4432,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -4764,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -4772,7 +4940,7 @@
   <dimension ref="A2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4811,7 +4979,7 @@
     </row>
     <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -4873,7 +5041,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4881,7 +5049,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>58</v>
@@ -4901,7 +5069,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E9" s="44"/>
     </row>
@@ -4911,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -4950,7 +5118,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4967,7 +5135,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>3</v>
@@ -5494,7 +5662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5521,7 +5689,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4">
         <v>0.01</v>
@@ -5529,9 +5697,9 @@
       <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>82</v>
@@ -5549,9 +5717,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>82</v>
@@ -5571,16 +5739,16 @@
     </row>
     <row r="6" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5588,7 +5756,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -5598,15 +5766,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:M12"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5624,121 +5792,145 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="D2" s="46"/>
-      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3200</v>
+      </c>
+      <c r="D3" s="46"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>9200</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="40"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45">
-        <v>2</v>
-      </c>
-      <c r="E6" s="45">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="40"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
-        <v>250</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5000</v>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45">
+        <v>2</v>
+      </c>
+      <c r="E7" s="45">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12">
+        <v>250</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C9" s="12">
         <v>25</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="40"/>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="40"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B11" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="45" t="b">
+      <c r="C11" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="29"/>
+      <c r="B14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5746,7 +5938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5784,7 +5976,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6310,108 +6502,6 @@
       <c r="A102" s="58"/>
       <c r="B102" s="49"/>
       <c r="C102" s="60"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="12">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="12">
-        <v>12000</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6562,7 +6652,7 @@
       </c>
       <c r="B13" s="65">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>416000</v>
+        <v>428000</v>
       </c>
       <c r="C13" s="65"/>
     </row>
@@ -6573,7 +6663,7 @@
       </c>
       <c r="B14" s="65">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>445120</v>
+        <v>453680</v>
       </c>
       <c r="C14" s="65"/>
     </row>
@@ -6584,7 +6674,7 @@
       </c>
       <c r="B15" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>467376</v>
+        <v>499048.00000000006</v>
       </c>
       <c r="C15" s="65"/>
     </row>
@@ -6595,7 +6685,7 @@
       </c>
       <c r="B16" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>490744.80000000005</v>
+        <v>524000.40000000008</v>
       </c>
       <c r="C16" s="65"/>
     </row>
@@ -6606,7 +6696,7 @@
       </c>
       <c r="B17" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>505467.14400000009</v>
+        <v>555440.42400000012</v>
       </c>
       <c r="C17" s="65"/>
     </row>
@@ -6617,7 +6707,7 @@
       </c>
       <c r="B18" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>530740.50120000006</v>
+        <v>594321.2536800002</v>
       </c>
       <c r="C18" s="65"/>
     </row>
@@ -6628,7 +6718,7 @@
       </c>
       <c r="B19" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>541355.31122400006</v>
+        <v>618094.10382720025</v>
       </c>
       <c r="C19" s="65"/>
     </row>
@@ -6639,7 +6729,7 @@
       </c>
       <c r="B20" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>563009.52367296012</v>
+        <v>661360.69109510432</v>
       </c>
       <c r="C20" s="65"/>
     </row>
@@ -6650,7 +6740,7 @@
       </c>
       <c r="B21" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>585529.90461987851</v>
+        <v>707655.9394717617</v>
       </c>
       <c r="C21" s="65"/>
     </row>
@@ -6661,7 +6751,7 @@
       </c>
       <c r="B22" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>608951.10080467362</v>
+        <v>735962.17705063219</v>
       </c>
       <c r="C22" s="65"/>
     </row>
@@ -6672,7 +6762,7 @@
       </c>
       <c r="B23" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>645488.16685295408</v>
+        <v>758041.0423621512</v>
       </c>
       <c r="C23" s="65"/>
     </row>
@@ -6683,7 +6773,7 @@
       </c>
       <c r="B24" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>677762.57519560179</v>
+        <v>788362.68405663723</v>
       </c>
       <c r="C24" s="65"/>
     </row>
@@ -6694,7 +6784,7 @@
       </c>
       <c r="B25" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>718428.32970733789</v>
+        <v>867198.95246230101</v>
       </c>
       <c r="C25" s="65"/>
     </row>
@@ -6705,7 +6795,7 @@
       </c>
       <c r="B26" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>790271.16267807176</v>
+        <v>893214.9210361701</v>
       </c>
       <c r="C26" s="65"/>
     </row>
@@ -7085,6 +7175,108 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="12">
+        <v>12000</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3623E-739B-4E92-BD1F-A85E8AE93729}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7112,7 +7304,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="12">
         <v>300</v>
@@ -7203,82 +7395,9 @@
         <v>46</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4B664-69DF-44D6-A7D5-A5BD33641629}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7287,6 +7406,85 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952CE758-0D5B-42FD-99EA-05A20ACE7083}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="19" customWidth="1"/>
+    <col min="3" max="4" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24977A-EA5F-4BA3-9B84-B620814A1B9D}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7341,7 +7539,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="29"/>
     </row>
@@ -7352,168 +7550,749 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4304C-331C-4AAE-B30A-A79C47FFD291}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="64"/>
+    <col min="2" max="3" width="17.109375" style="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="67">
+        <v>-5</v>
+      </c>
+      <c r="B2" s="42">
+        <v>98049</v>
+      </c>
+      <c r="C2" s="42">
+        <v>88428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="67">
+        <f>A2+1</f>
+        <v>-4</v>
+      </c>
+      <c r="B3" s="42">
+        <v>99027</v>
+      </c>
+      <c r="C3" s="42">
+        <v>80354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="67">
+        <f>A3+1</f>
+        <v>-3</v>
+      </c>
+      <c r="B4" s="42">
+        <v>114805</v>
+      </c>
+      <c r="C4" s="42">
+        <v>94175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="67">
+        <f>A4+1</f>
+        <v>-2</v>
+      </c>
+      <c r="B5" s="42">
+        <v>109016</v>
+      </c>
+      <c r="C5" s="42">
+        <v>93107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
+        <f>A5+1</f>
+        <v>-1</v>
+      </c>
+      <c r="B6" s="42">
+        <v>119800</v>
+      </c>
+      <c r="C6" s="42">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="67"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="67"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="67"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="67"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="67"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="67"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="67"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="67"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="67"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="67"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="67"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="67"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="67"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="67"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="67"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="67"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="67"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="67"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="67"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="67"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="67"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="67"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="67"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="67"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="67"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="67"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="67"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="67"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="67"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="67"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="67"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="67"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="67"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="67"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="67"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="67"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="67"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="67"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="67"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="67"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="67"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="67"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="67"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="67"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="67"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="67"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="67"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="67"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="67"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="67"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="67"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="67"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="67"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="76"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="67"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="67"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="67"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="67"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="67"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="67"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="67"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="67"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="67"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="67"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="67"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="67"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="67"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="67"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="67"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="67"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="67"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="67"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="67"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="67"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49DA5D-4944-4CAF-B436-E7E5AFCEF148}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="13"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="75"/>
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="26">
         <v>3000</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="74"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="26">
         <v>2000</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="74" t="str">
+      <c r="F4" s="74" t="str">
         <f>A3</f>
         <v>highDividend</v>
       </c>
-      <c r="F4" s="42">
+      <c r="G4" s="42">
         <v>5000000</v>
       </c>
-      <c r="G4" s="74" t="str">
+      <c r="H4" s="74" t="str">
         <f>A3</f>
         <v>highDividend</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="26">
         <v>3500</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="74"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="26">
         <v>3500</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="74" t="str">
+      <c r="F6" s="74" t="str">
         <f>A4</f>
         <v>lowVolatility</v>
       </c>
-      <c r="F6" s="42">
+      <c r="G6" s="42">
         <v>2500000</v>
       </c>
-      <c r="G6" s="74" t="str">
+      <c r="H6" s="74" t="str">
         <f>A4</f>
         <v>lowVolatility</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="26">
         <v>6000</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="74" t="str">
+      <c r="F7" s="74" t="str">
         <f>A6</f>
         <v>indexFund</v>
       </c>
-      <c r="F7" s="42">
+      <c r="G7" s="42">
         <v>2500000</v>
       </c>
-      <c r="G7" s="74" t="str">
+      <c r="H7" s="74" t="str">
         <f>A6</f>
         <v>indexFund</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
@@ -7521,623 +8300,644 @@
         <f>74000+56000</f>
         <v>130000</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="74"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="74"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="74"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="26">
         <v>28000</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="74"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="74"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="74"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="26">
         <v>7500</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="20">
+      <c r="E10" s="20">
         <v>529</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="74"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="74"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="26">
         <v>80000</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="F11" s="74" t="str">
         <f>A6</f>
         <v>indexFund</v>
       </c>
-      <c r="F11" s="42">
+      <c r="G11" s="42">
         <v>100000</v>
       </c>
-      <c r="G11" s="74" t="str">
+      <c r="H11" s="74" t="str">
         <f>A7</f>
         <v>etfFund</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="20"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="74"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="20"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="74"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="20"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="20"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="74"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="20"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="20"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="74"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="20"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="20"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="74"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="20"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="74"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="20"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="74"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="20"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="74"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="20"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="74"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="20"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="74"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="20"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="74"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="20"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="74"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="20"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="74"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="20"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="74"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="20"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="74"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="20"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="74"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="20"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="74"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="20"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="74"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="20"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="74"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="20"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="74"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="20"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="74"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="20"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="74"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="20"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="74"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="20"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="74"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" s="20"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="74"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D40" s="20"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="74"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D41" s="20"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="74"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="20"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="74"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="20"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="74"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="20"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="74"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="20"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="74"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D46" s="20"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="74"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D47" s="20"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="74"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D48" s="20"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D49" s="20"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="74"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="20"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="74"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="20"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="74"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="20"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="74"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="20"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="74"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D54" s="20"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="74"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D55" s="20"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="74"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D56" s="20"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="74"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D57" s="20"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="74"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D58" s="20"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="74"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D59" s="20"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="74"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D60" s="20"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="74"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="20"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="74"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D62" s="20"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="74"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D63" s="20"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="74"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D64" s="20"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="74"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D65" s="20"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="74"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D66" s="20"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="74"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D67" s="20"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="74"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D68" s="20"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="74"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D69" s="20"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="74"/>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D70" s="20"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="74"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D71" s="20"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="74"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D72" s="20"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="74"/>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D73" s="20"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="74"/>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D74" s="20"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="74"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D75" s="20"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="74"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D76" s="20"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="74"/>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D77" s="20"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="74"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D78" s="20"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="74"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D79" s="20"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="74"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D80" s="20"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="74"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D81" s="20"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="74"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D82" s="20"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="74"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D83" s="20"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="74"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D84" s="20"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="74"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D85" s="20"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="74"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D86" s="20"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="74"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D87" s="20"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="74"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D88" s="20"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="74"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D89" s="20"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="74"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D90" s="20"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="74"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D91" s="20"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="74"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D92" s="20"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="74"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D93" s="20"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="74"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D94" s="20"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="74"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D95" s="20"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="74"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D96" s="20"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="74"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="20"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="74"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="20"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="74"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="20"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="74"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="20"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="74"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="74"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="20"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="20"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="20"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="20"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="20"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="20"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="20"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="20"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="20"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="20"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="20"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="20"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="20"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="20"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="20"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E36" s="20"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="20"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="20"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="20"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="74"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="20"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="20"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="20"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="74"/>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E43" s="20"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="74"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="20"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="74"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E45" s="20"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="74"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E46" s="20"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E47" s="20"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="74"/>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E48" s="20"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="74"/>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E49" s="20"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="20"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="20"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="20"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E53" s="20"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="74"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E54" s="20"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="74"/>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="20"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E56" s="20"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="74"/>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E57" s="20"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="74"/>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E58" s="20"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="74"/>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E59" s="20"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="74"/>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E60" s="20"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="74"/>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E61" s="20"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E62" s="20"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="74"/>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E63" s="20"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="74"/>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E64" s="20"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="74"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E65" s="20"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="74"/>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E66" s="20"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="74"/>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E67" s="20"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="74"/>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E68" s="20"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="74"/>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E69" s="20"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="74"/>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E70" s="20"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="74"/>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E71" s="20"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="74"/>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E72" s="20"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="74"/>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E73" s="20"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="74"/>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E74" s="20"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="74"/>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E75" s="20"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="74"/>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E76" s="20"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="74"/>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E77" s="20"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="74"/>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E78" s="20"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="74"/>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E79" s="20"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="74"/>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E80" s="20"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="74"/>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E81" s="20"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="74"/>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E82" s="20"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="74"/>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E83" s="20"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="74"/>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E84" s="20"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="74"/>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E85" s="20"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="74"/>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E86" s="20"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="74"/>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E87" s="20"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="74"/>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E88" s="20"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="74"/>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E89" s="20"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="74"/>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E90" s="20"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="74"/>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E91" s="20"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="74"/>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E92" s="20"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="74"/>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E93" s="20"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="74"/>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E94" s="20"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="74"/>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E95" s="20"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="74"/>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E96" s="20"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="74"/>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E97" s="20"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="74"/>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E98" s="20"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="74"/>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E99" s="20"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="74"/>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E100" s="20"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D100" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E100" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
       <formula1>"INVEST,SAVINGS,ROTH,TRAD,529"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C1048576" xr:uid="{F3B1FBD3-F42B-431C-8FDE-18011F4FDCE1}">
+      <formula1>"JOINT,IND-1,IND-2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{447F94E9-12F0-474E-989F-7629C8EC8360}">
+      <formula1>"JOINT,IND_1,IND_2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{9AA64B54-B152-4DEC-9FB4-9585C9531AC7}">
+      <formula1>"LONG,SHORT,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CE992E-FAF4-40CB-8323-EE3FED99FC40}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -8208,7 +9008,7 @@
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="22">
         <v>10</v>
@@ -8248,7 +9048,7 @@
     </row>
     <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="22">
         <v>30</v>
@@ -8330,7 +9130,7 @@
     </row>
     <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="22">
         <v>250</v>
@@ -8353,7 +9153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CA22D-5C95-47B0-8C30-F5F775E3CBBB}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -8425,7 +9225,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="24">
         <v>0.04</v>
@@ -8451,7 +9251,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="24">
         <v>0.1</v>
@@ -8515,7 +9315,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="24">
         <v>0.03</v>
@@ -8534,7 +9334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2E811-81FA-4F59-A9BB-547CEDB5B80F}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -8564,10 +9364,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -8579,7 +9379,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9211,14 +10011,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5E4A8C-AC10-43B6-BDCF-45FA095A9419}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -9228,7 +10028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228208F-908D-44CE-BB18-24656B27C42F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -9462,7 +10262,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="38"/>
       <c r="I8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>3</v>
@@ -9495,7 +10295,7 @@
         <v>46</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -9550,214 +10350,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:Z16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="I2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2200</v>
-      </c>
-      <c r="I3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>75</v>
-      </c>
-      <c r="D4" s="42">
-        <v>50</v>
-      </c>
-      <c r="E4" s="42">
-        <v>25</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-    </row>
-    <row r="5" spans="1:26" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="12">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12">
-        <v>100</v>
-      </c>
-      <c r="I6"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12">
-        <v>20</v>
-      </c>
-      <c r="I7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I8"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12">
-        <v>150</v>
-      </c>
-      <c r="I9"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>20</v>
-      </c>
-      <c r="I10"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12">
-        <v>40</v>
-      </c>
-      <c r="I11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="40"/>
-      <c r="I12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I14"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I15"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I16"/>
-      <c r="M16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFECC6-3F0A-4185-91B5-3A9680F51896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C3997-06A2-40B3-87A1-479DE667C1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1359,11 +1359,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1732,7 +1732,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B4" s="19">
         <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="18">
         <v>32000</v>
@@ -2761,11 +2761,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -2799,7 +2799,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
@@ -2828,11 +2828,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="18">
         <v>22500</v>
@@ -2892,11 +2892,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2921,11 +2921,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18">
         <v>22500</v>
@@ -2950,15 +2950,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>47876</v>
+        <v>42029</v>
       </c>
       <c r="D11" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -2980,15 +2980,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>43379</v>
+        <v>44691</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3010,7 +3010,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>47542</v>
+        <v>44966</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3040,15 +3040,15 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>54018</v>
+        <v>48311</v>
       </c>
       <c r="D14" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>40140</v>
+        <v>57297</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3100,15 +3100,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>50813</v>
+        <v>58939</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3130,7 +3130,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="19">
         <f t="shared" ca="1" si="6"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C17" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43792</v>
+        <v>52770</v>
       </c>
       <c r="D17" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3160,15 +3160,15 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>40956</v>
+        <v>48902</v>
       </c>
       <c r="D18" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3194,11 +3194,11 @@
       </c>
       <c r="B19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>47677</v>
+        <v>54866</v>
       </c>
       <c r="D19" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3218,33 +3218,33 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="str">
+      <c r="A20" s="17">
         <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="19" t="str">
+        <v>59</v>
+      </c>
+      <c r="B20" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="C20" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="C20" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D20" s="34" t="str">
+        <v>59147</v>
+      </c>
+      <c r="D20" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="34" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="F20" s="61" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F20" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="G20" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="G20" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B13" s="65">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>428000</v>
+        <v>440000.00000000006</v>
       </c>
       <c r="C13" s="65"/>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B14" s="65">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>453680</v>
+        <v>484000.00000000012</v>
       </c>
       <c r="C14" s="65"/>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="B15" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>499048.00000000006</v>
+        <v>503360.00000000012</v>
       </c>
       <c r="C15" s="65"/>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B16" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>524000.40000000008</v>
+        <v>528528.00000000012</v>
       </c>
       <c r="C16" s="65"/>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B17" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>555440.42400000012</v>
+        <v>576095.52000000014</v>
       </c>
       <c r="C17" s="65"/>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B18" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>594321.2536800002</v>
+        <v>622183.16160000023</v>
       </c>
       <c r="C18" s="65"/>
     </row>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="B19" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>618094.10382720025</v>
+        <v>665735.98291200027</v>
       </c>
       <c r="C19" s="65"/>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B20" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>661360.69109510432</v>
+        <v>679050.70257024025</v>
       </c>
       <c r="C20" s="65"/>
     </row>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B21" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>707655.9394717617</v>
+        <v>733374.75877585949</v>
       </c>
       <c r="C21" s="65"/>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B22" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>735962.17705063219</v>
+        <v>777377.2443024111</v>
       </c>
       <c r="C22" s="65"/>
     </row>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="B23" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>758041.0423621512</v>
+        <v>808472.33407450758</v>
       </c>
       <c r="C23" s="65"/>
     </row>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B24" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>788362.68405663723</v>
+        <v>881234.84414121334</v>
       </c>
       <c r="C24" s="65"/>
     </row>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B25" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>867198.95246230101</v>
+        <v>960545.98011392262</v>
       </c>
       <c r="C25" s="65"/>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B26" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>893214.9210361701</v>
+        <v>998967.81931847951</v>
       </c>
       <c r="C26" s="65"/>
     </row>
@@ -7846,263 +7846,263 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="67"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="67"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="67"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="67"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="67"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="67"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="67"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="67"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="67"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="67"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="67"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="67"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="67"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="67"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="67"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="67"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="76"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="67"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="67"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="67"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="67"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="67"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="67"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="67"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="67"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="67"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="67"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="67"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="67"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="67"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="67"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="67"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="67"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="67"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="67"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="67"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="67"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="67"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="67"/>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="67"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="67"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="67"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="67"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="67"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8116,8 +8116,8 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8133,7 +8133,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -8143,7 +8143,7 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
@@ -8919,15 +8919,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E100" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
-      <formula1>"INVEST,SAVINGS,ROTH,TRAD,529"</formula1>
+      <formula1>"INVEST,DIVIDEND,SAVINGS,ROTH,TRAD,529"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C1048576" xr:uid="{F3B1FBD3-F42B-431C-8FDE-18011F4FDCE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C101:C1048576 C3:C100" xr:uid="{F3B1FBD3-F42B-431C-8FDE-18011F4FDCE1}">
       <formula1>"JOINT,IND-1,IND-2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11" xr:uid="{447F94E9-12F0-474E-989F-7629C8EC8360}">
-      <formula1>"JOINT,IND_1,IND_2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{9AA64B54-B152-4DEC-9FB4-9585C9531AC7}">
       <formula1>"LONG,SHORT,NONE"</formula1>
@@ -9172,7 +9169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -9183,7 +9180,7 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>

--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -1,41 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48873E-1E07-4C2C-A9BD-E779AEE6B091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E4CF37-82D5-48B0-89C3-957D1C961B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
     <sheet name="Salary" sheetId="20" r:id="rId2"/>
-    <sheet name="Salary (Past)" sheetId="26" r:id="rId3"/>
+    <sheet name="Social Security" sheetId="26" r:id="rId3"/>
     <sheet name="Accounts" sheetId="4" r:id="rId4"/>
     <sheet name="Allocations" sheetId="2" r:id="rId5"/>
     <sheet name="Earnings" sheetId="3" r:id="rId6"/>
     <sheet name="Loans" sheetId="21" r:id="rId7"/>
-    <sheet name="MONTHLY" sheetId="22" r:id="rId8"/>
-    <sheet name="Home" sheetId="6" r:id="rId9"/>
-    <sheet name="Rent" sheetId="7" r:id="rId10"/>
-    <sheet name="Car" sheetId="5" r:id="rId11"/>
-    <sheet name="Food" sheetId="8" r:id="rId12"/>
-    <sheet name="Shopping" sheetId="23" r:id="rId13"/>
-    <sheet name="Activities" sheetId="24" r:id="rId14"/>
-    <sheet name="Subscriptions" sheetId="11" r:id="rId15"/>
-    <sheet name="Personal Care" sheetId="10" r:id="rId16"/>
-    <sheet name="Gifts" sheetId="13" r:id="rId17"/>
-    <sheet name="Health Care" sheetId="9" r:id="rId18"/>
-    <sheet name="Pet" sheetId="12" r:id="rId19"/>
-    <sheet name="Education" sheetId="15" r:id="rId20"/>
-    <sheet name="Vacation" sheetId="16" r:id="rId21"/>
-    <sheet name="Major" sheetId="25" r:id="rId22"/>
-    <sheet name="Random" sheetId="18" r:id="rId23"/>
+    <sheet name="Home" sheetId="6" r:id="rId8"/>
+    <sheet name="Rent" sheetId="7" r:id="rId9"/>
+    <sheet name="Car" sheetId="5" r:id="rId10"/>
+    <sheet name="Food" sheetId="8" r:id="rId11"/>
+    <sheet name="Shopping" sheetId="23" r:id="rId12"/>
+    <sheet name="Activities" sheetId="24" r:id="rId13"/>
+    <sheet name="Subscriptions" sheetId="11" r:id="rId14"/>
+    <sheet name="Personal Care" sheetId="10" r:id="rId15"/>
+    <sheet name="Gifts" sheetId="13" r:id="rId16"/>
+    <sheet name="Health Care" sheetId="9" r:id="rId17"/>
+    <sheet name="Pet" sheetId="12" r:id="rId18"/>
+    <sheet name="Education" sheetId="15" r:id="rId19"/>
+    <sheet name="Vacation" sheetId="16" r:id="rId20"/>
+    <sheet name="Major" sheetId="25" r:id="rId21"/>
+    <sheet name="Random" sheetId="18" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="166">
   <si>
     <t>Years</t>
   </si>
@@ -406,9 +405,6 @@
   </si>
   <si>
     <t>etfFund</t>
-  </si>
-  <si>
-    <t>Home Chef</t>
   </si>
   <si>
     <t>% salary</t>
@@ -1374,10 +1370,10 @@
     <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,9 +1442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1486,7 +1482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1592,7 +1588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1734,7 +1730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1747,8 +1743,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1770,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="44">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,7 +1779,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="44">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -1794,10 +1790,10 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="44">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="17">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1844,7 +1840,7 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="44">
@@ -1924,14 +1920,14 @@
     <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1940,7 +1936,7 @@
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="12">
-        <v>119800</v>
+        <v>132000</v>
       </c>
       <c r="D15" s="18">
         <v>111435</v>
@@ -1967,22 +1963,22 @@
         <v>42</v>
       </c>
       <c r="C17" s="4">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="D17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="61">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="H17" s="61">
         <v>0.05</v>
-      </c>
-      <c r="F17" s="61">
-        <v>-0.02</v>
-      </c>
-      <c r="G17" s="61">
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="61">
-        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1993,10 +1989,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D18" s="4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E18" s="4">
         <v>0.05</v>
@@ -2008,7 +2004,7 @@
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="10"/>
@@ -2019,7 +2015,7 @@
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="10"/>
@@ -2032,13 +2028,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D21" s="4">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E21" s="4">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2044,7 @@
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="54">
         <v>3.5000000000000003E-2</v>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="4">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="54">
         <v>2.3E-2</v>
@@ -2418,216 +2414,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:Z16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="I2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2200</v>
-      </c>
-      <c r="I3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>75</v>
-      </c>
-      <c r="D4" s="41">
-        <v>50</v>
-      </c>
-      <c r="E4" s="41">
-        <v>25</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-    </row>
-    <row r="5" spans="1:26" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="12">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12">
-        <v>100</v>
-      </c>
-      <c r="I6"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12">
-        <v>20</v>
-      </c>
-      <c r="I7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I8"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12">
-        <v>150</v>
-      </c>
-      <c r="I9"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>20</v>
-      </c>
-      <c r="I10"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12">
-        <v>40</v>
-      </c>
-      <c r="I11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="39"/>
-      <c r="I12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I14"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I15"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I16"/>
-      <c r="M16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2706,7 +2492,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -2776,11 +2562,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -2818,36 +2604,36 @@
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="18">
         <v>30000</v>
       </c>
       <c r="D6" s="33">
-        <f t="shared" ref="D6:D20" si="1">IF(ISNUMBER(C6),20%,"")</f>
+        <f t="shared" ref="D6:D19" si="1">IF(ISNUMBER(C6),20%,"")</f>
         <v>0.2</v>
       </c>
       <c r="E6" s="33">
-        <f t="shared" ref="E6:E20" si="2">IF(ISNUMBER(D6),-15%,"")</f>
+        <f t="shared" ref="E6:E19" si="2">IF(ISNUMBER(D6),-15%,"")</f>
         <v>-0.15</v>
       </c>
       <c r="F6" s="60">
-        <f t="shared" ref="F6:F20" si="3">IF(ISNUMBER(E6),5,"")</f>
+        <f t="shared" ref="F6:F19" si="3">IF(ISNUMBER(E6),5,"")</f>
         <v>5</v>
       </c>
       <c r="G6" s="37">
-        <f t="shared" ref="G6:G20" si="4">IF(ISNUMBER(F6),1.9%,"")</f>
+        <f t="shared" ref="G6:G19" si="4">IF(ISNUMBER(F6),1.9%,"")</f>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2872,17 +2658,17 @@
         <v>44</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="18">
         <v>22500</v>
@@ -2907,11 +2693,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2936,11 +2722,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18">
         <v>22500</v>
@@ -2965,15 +2751,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>41547</v>
+        <v>48978</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2995,15 +2781,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18">
-        <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>42002</v>
+        <f t="shared" ref="C12:C19" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
+        <v>57637</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -3025,15 +2811,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>49575</v>
+        <v>50463</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -3055,15 +2841,15 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="19">
-        <f t="shared" ref="B14:B20" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>41</v>
+        <f t="shared" ref="B14:B19" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
+        <v>46</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>56767</v>
+        <v>42871</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -3085,15 +2871,15 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>57451</v>
+        <v>58428</v>
       </c>
       <c r="D15" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -3113,243 +2899,243 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="17" t="str">
         <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
-        <v>41</v>
-      </c>
-      <c r="B16" s="19">
+        <v/>
+      </c>
+      <c r="B16" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="C16" s="18">
+        <v/>
+      </c>
+      <c r="C16" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>46464</v>
-      </c>
-      <c r="D16" s="33">
+        <v/>
+      </c>
+      <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="33">
+        <v/>
+      </c>
+      <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F16" s="60">
+        <v/>
+      </c>
+      <c r="F16" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="37">
+        <v/>
+      </c>
+      <c r="G16" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="17" t="str">
         <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
-        <v>42</v>
-      </c>
-      <c r="B17" s="19">
+        <v/>
+      </c>
+      <c r="B17" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="C17" s="18">
+        <v/>
+      </c>
+      <c r="C17" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>44549</v>
-      </c>
-      <c r="D17" s="33">
+        <v/>
+      </c>
+      <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="33">
+        <v/>
+      </c>
+      <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F17" s="60">
+        <v/>
+      </c>
+      <c r="F17" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G17" s="37">
+        <v/>
+      </c>
+      <c r="G17" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="17" t="str">
         <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
-        <v>46</v>
-      </c>
-      <c r="B18" s="19">
+        <v/>
+      </c>
+      <c r="B18" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="C18" s="18">
+        <v/>
+      </c>
+      <c r="C18" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>52366</v>
-      </c>
-      <c r="D18" s="33">
+        <v/>
+      </c>
+      <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="33">
+        <v/>
+      </c>
+      <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F18" s="60">
+        <v/>
+      </c>
+      <c r="F18" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G18" s="37">
+        <v/>
+      </c>
+      <c r="G18" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="17" t="str">
         <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
-        <v>48</v>
-      </c>
-      <c r="B19" s="19">
+        <v/>
+      </c>
+      <c r="B19" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="C19" s="18">
+        <v/>
+      </c>
+      <c r="C19" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>53833</v>
-      </c>
-      <c r="D19" s="33">
+        <v/>
+      </c>
+      <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="33">
+        <v/>
+      </c>
+      <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F19" s="60">
+        <v/>
+      </c>
+      <c r="F19" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="37">
+        <v/>
+      </c>
+      <c r="G19" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="17" t="str">
         <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
-        <v>51</v>
-      </c>
-      <c r="B20" s="19">
-        <f t="shared" ref="B20:B24" ca="1" si="7">IF(ISNUMBER(A20),A20+RANDBETWEEN(5,9),"")</f>
-        <v>59</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" ref="C20:C24" ca="1" si="8">IF(ISNUMBER(B20),RANDBETWEEN(40000,60000),"")</f>
-        <v>40143</v>
-      </c>
-      <c r="D20" s="33">
-        <f t="shared" ref="D20:D24" ca="1" si="9">IF(ISNUMBER(C20),20%,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" ref="E20:E24" ca="1" si="10">IF(ISNUMBER(D20),-15%,"")</f>
-        <v>-0.15</v>
-      </c>
-      <c r="F20" s="60">
-        <f t="shared" ref="F20:F24" ca="1" si="11">IF(ISNUMBER(E20),5,"")</f>
-        <v>5</v>
-      </c>
-      <c r="G20" s="37">
-        <f t="shared" ref="G20:G24" ca="1" si="12">IF(ISNUMBER(F20),1.9%,"")</f>
-        <v>1.9E-2</v>
+        <v/>
+      </c>
+      <c r="B20" s="19" t="str">
+        <f t="shared" ref="B20:B25" ca="1" si="7">IF(ISNUMBER(A20),A20+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f t="shared" ref="C20:C25" ca="1" si="8">IF(ISNUMBER(B20),RANDBETWEEN(40000,60000),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="33" t="str">
+        <f t="shared" ref="D20:D25" ca="1" si="9">IF(ISNUMBER(C20),20%,"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="33" t="str">
+        <f t="shared" ref="E20:E25" ca="1" si="10">IF(ISNUMBER(D20),-15%,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="60" t="str">
+        <f t="shared" ref="F20:F25" ca="1" si="11">IF(ISNUMBER(E20),5,"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="37" t="str">
+        <f t="shared" ref="G20:G25" ca="1" si="12">IF(ISNUMBER(F20),1.9%,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="17" t="str">
         <f ca="1">IF(B19&lt;Inputs!$C$3,B19,"")</f>
-        <v>54</v>
-      </c>
-      <c r="B21" s="19">
+        <v/>
+      </c>
+      <c r="B21" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="C21" s="18">
+        <v/>
+      </c>
+      <c r="C21" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>53714</v>
-      </c>
-      <c r="D21" s="33">
+        <v/>
+      </c>
+      <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="33">
+        <v/>
+      </c>
+      <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F21" s="60">
+        <v/>
+      </c>
+      <c r="F21" s="60" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="G21" s="37">
+        <v/>
+      </c>
+      <c r="G21" s="37" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="17" t="str">
         <f ca="1">IF(B20&lt;Inputs!$C$3,B20,"")</f>
-        <v>59</v>
-      </c>
-      <c r="B22" s="19">
+        <v/>
+      </c>
+      <c r="B22" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
-      </c>
-      <c r="C22" s="18">
+        <v/>
+      </c>
+      <c r="C22" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>44191</v>
-      </c>
-      <c r="D22" s="33">
+        <v/>
+      </c>
+      <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="33">
+        <v/>
+      </c>
+      <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F22" s="60">
+        <v/>
+      </c>
+      <c r="F22" s="60" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="G22" s="37">
+        <v/>
+      </c>
+      <c r="G22" s="37" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="17" t="str">
         <f ca="1">IF(B21&lt;Inputs!$C$3,B21,"")</f>
-        <v>59</v>
-      </c>
-      <c r="B23" s="19">
+        <v/>
+      </c>
+      <c r="B23" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="C23" s="18">
+        <v/>
+      </c>
+      <c r="C23" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>53250</v>
-      </c>
-      <c r="D23" s="33">
+        <v/>
+      </c>
+      <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="33">
+        <v/>
+      </c>
+      <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F23" s="60">
+        <v/>
+      </c>
+      <c r="F23" s="60" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="G23" s="37">
+        <v/>
+      </c>
+      <c r="G23" s="37" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3388,27 +3174,27 @@
         <v/>
       </c>
       <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25" ca="1" si="13">IF(ISNUMBER(A25),A25+RANDBETWEEN(5,9),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="C25" s="18" t="str">
-        <f t="shared" ref="C25" ca="1" si="14">IF(ISNUMBER(B25),RANDBETWEEN(40000,60000),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="D25" s="33" t="str">
-        <f t="shared" ref="D25" ca="1" si="15">IF(ISNUMBER(C25),20%,"")</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="E25" s="33" t="str">
-        <f t="shared" ref="E25" ca="1" si="16">IF(ISNUMBER(D25),-15%,"")</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="F25" s="60" t="str">
-        <f t="shared" ref="F25" ca="1" si="17">IF(ISNUMBER(E25),5,"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G25" s="37" t="str">
-        <f t="shared" ref="G25" ca="1" si="18">IF(ISNUMBER(F25),1.9%,"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
@@ -3418,7 +3204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3426,7 +3212,7 @@
   <dimension ref="A2:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3450,13 +3236,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3467,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="12">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E3" s="28"/>
     </row>
@@ -3484,15 +3270,9 @@
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="58">
-        <v>200</v>
-      </c>
+      <c r="A5" s="57"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="58"/>
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F971-9022-47EF-A46E-8DC0E4F5AA23}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3997,7 +3777,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>3</v>
@@ -4009,12 +3789,12 @@
         <v>44</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>3</v>
@@ -4026,7 +3806,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>3</v>
@@ -4038,7 +3818,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>3</v>
@@ -4050,7 +3830,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -4062,7 +3842,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>3</v>
@@ -4074,7 +3854,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>3</v>
@@ -4550,7 +4330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44382-030D-4D66-91A6-AD13ADE699AE}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -4558,7 +4338,7 @@
   <dimension ref="A2:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4568,42 +4348,42 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" s="28"/>
     </row>
@@ -5097,7 +4877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5112,10 +4892,10 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="30" customWidth="1"/>
-    <col min="10" max="12" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" style="28" customWidth="1"/>
+    <col min="3" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="30" customWidth="1"/>
+    <col min="10" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5144,7 +4924,7 @@
     </row>
     <row r="4" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>3</v>
@@ -5214,7 +4994,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>56</v>
@@ -5234,7 +5014,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -5244,7 +5024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5252,7 +5032,7 @@
   <dimension ref="A2:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5283,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5300,7 +5080,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>3</v>
@@ -5318,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E5" s="28"/>
     </row>
@@ -5827,7 +5607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5835,7 +5615,7 @@
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="C5:F5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,7 +5634,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4">
         <v>0.01</v>
@@ -5864,7 +5644,7 @@
     <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>80</v>
@@ -5884,7 +5664,7 @@
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>80</v>
@@ -5904,16 +5684,16 @@
     </row>
     <row r="6" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="43" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="28"/>
     </row>
@@ -5931,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -5939,7 +5719,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5957,13 +5737,13 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D2" s="45"/>
     </row>
@@ -5975,7 +5755,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="12">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="28"/>
@@ -5986,7 +5766,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="7">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="28"/>
@@ -5999,7 +5779,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="12">
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="28"/>
@@ -6020,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="44">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6074,7 +5854,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>80</v>
@@ -6093,7 +5873,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -6103,7 +5883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6111,7 +5891,7 @@
   <dimension ref="A2:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6135,13 +5915,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6674,672 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="63"/>
-    <col min="2" max="2" width="11.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="64">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="66">
-        <f t="shared" ref="A4:A26" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="64">
-        <v>0</v>
-      </c>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="66">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="64">
-        <v>0</v>
-      </c>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="64">
-        <v>70000</v>
-      </c>
-      <c r="C6" s="64"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="66">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="64">
-        <v>75000</v>
-      </c>
-      <c r="C7" s="64"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="66">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="64">
-        <v>80000</v>
-      </c>
-      <c r="C8" s="64"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="66">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="64">
-        <v>85000</v>
-      </c>
-      <c r="C9" s="64"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="64">
-        <v>90000</v>
-      </c>
-      <c r="C10" s="64"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="66">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="64">
-        <v>95000</v>
-      </c>
-      <c r="C11" s="64"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="66">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="64">
-        <v>400000</v>
-      </c>
-      <c r="C12" s="64"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="66">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="64">
-        <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>408000</v>
-      </c>
-      <c r="C13" s="64"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="64">
-        <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>436560</v>
-      </c>
-      <c r="C14" s="64"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="66">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>480216.00000000006</v>
-      </c>
-      <c r="C15" s="64"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="66">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>489820.32000000007</v>
-      </c>
-      <c r="C16" s="64"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="66">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>533904.14880000008</v>
-      </c>
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="66">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>555260.31475200015</v>
-      </c>
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="66">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>577470.72734208021</v>
-      </c>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="66">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>629443.09280286753</v>
-      </c>
-      <c r="C20" s="64"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="66">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>667209.67837103957</v>
-      </c>
-      <c r="C21" s="64"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="66">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>693898.06550588121</v>
-      </c>
-      <c r="C22" s="64"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>742470.93009129295</v>
-      </c>
-      <c r="C23" s="64"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="66">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>772169.76729494473</v>
-      </c>
-      <c r="C24" s="64"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="66">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>795334.86031379306</v>
-      </c>
-      <c r="C25" s="64"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="66">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="64">
-        <f t="shared" ca="1" si="1"/>
-        <v>874868.3463451725</v>
-      </c>
-      <c r="C26" s="64"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="66"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="66"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="66"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="66"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="66"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="66"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="66"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="66"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="66"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="66"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="66"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="66"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="66"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="66"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="66"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="66"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="66"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="66"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="66"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="66"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="66"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="66"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="66"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="66"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="66"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="66"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7441,7 +6556,672 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="63"/>
+    <col min="2" max="2" width="11.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="62">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="66">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="64">
+        <v>0</v>
+      </c>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="66">
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="64">
+        <v>0</v>
+      </c>
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="64">
+        <v>0</v>
+      </c>
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="64">
+        <v>70000</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="64">
+        <v>75000</v>
+      </c>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="64">
+        <v>80000</v>
+      </c>
+      <c r="C8" s="64"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="66">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="64">
+        <v>85000</v>
+      </c>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="66">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="64">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="64"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="66">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="64">
+        <v>95000</v>
+      </c>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="66">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="64">
+        <v>400000</v>
+      </c>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="66">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="64">
+        <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
+        <v>436000.00000000006</v>
+      </c>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="66">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="64">
+        <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
+        <v>457800.00000000006</v>
+      </c>
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="66">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>480690.00000000006</v>
+      </c>
+      <c r="C15" s="64"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="66">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>528759.00000000012</v>
+      </c>
+      <c r="C16" s="64"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="66">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>565772.13000000012</v>
+      </c>
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="66">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>605376.17910000018</v>
+      </c>
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="66">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>653806.27342800028</v>
+      </c>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="66">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>666882.39889656031</v>
+      </c>
+      <c r="C20" s="64"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="66">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>686888.87086345709</v>
+      </c>
+      <c r="C21" s="64"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="66">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>721233.31440663</v>
+      </c>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="66">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>757294.98012696148</v>
+      </c>
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="66">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>817878.5785371185</v>
+      </c>
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="66">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>899666.43639083044</v>
+      </c>
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="66">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="64">
+        <f t="shared" ca="1" si="1"/>
+        <v>953646.4225742803</v>
+      </c>
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="66"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="66"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="66"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="66"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="66"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="66"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="66"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="66"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="66"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="66"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="66"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="66"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="66"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="66"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="66"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="66"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="66"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="66"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="66"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="66"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="66"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="66"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="66"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="66"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="66"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="66"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="66"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="66"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="66"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="66"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="66"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="66"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="66"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="66"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="66"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="66"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="66"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="66"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="66"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="66"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="66"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="66"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="66"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="66"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="66"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="66"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="66"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3623E-739B-4E92-BD1F-A85E8AE93729}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7449,7 +7229,7 @@
   <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7560,7 +7340,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -7570,7 +7350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952CE758-0D5B-42FD-99EA-05A20ACE7083}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7578,7 +7358,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7616,13 +7396,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7649,7 +7429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24977A-EA5F-4BA3-9B84-B620814A1B9D}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -7704,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="28"/>
     </row>
@@ -7722,7 +7502,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7736,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -7793,7 +7573,7 @@
         <v>-1</v>
       </c>
       <c r="B6" s="41">
-        <v>119800</v>
+        <v>124403</v>
       </c>
       <c r="C6" s="41">
         <v>100000</v>
@@ -8281,8 +8061,8 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8298,7 +8078,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -8308,12 +8088,12 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>27</v>
@@ -8322,13 +8102,13 @@
         <v>28</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="H2" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -8336,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="25">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C3" s="65" t="s">
         <v>101</v>
@@ -8345,7 +8125,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="41"/>
@@ -8359,7 +8139,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="25">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="65" t="s">
         <v>101</v>
@@ -8384,10 +8164,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="25">
-        <v>3500</v>
+        <v>30000</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>101</v>
@@ -8407,7 +8187,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="25">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>101</v>
@@ -8435,7 +8215,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="25">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>101</v>
@@ -8460,13 +8240,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="25">
-        <v>80000</v>
+        <f>130000-B9</f>
+        <v>85000</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>31</v>
@@ -8480,13 +8261,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="25">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>30</v>
@@ -8500,13 +8281,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="25">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>31</v>
@@ -8520,13 +8301,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="25">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>30</v>
@@ -8543,7 +8324,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="25">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>101</v>
@@ -8566,10 +8347,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="25">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>101</v>
@@ -9141,7 +8922,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9302,10 +9083,10 @@
       <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="75">
         <v>0</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>0</v>
       </c>
     </row>
@@ -9344,10 +9125,10 @@
       <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="75">
         <v>0</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>0</v>
       </c>
     </row>
@@ -9859,7 +9640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -9870,7 +9651,7 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -10096,10 +9877,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -10111,7 +9892,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10744,23 +10525,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5E4A8C-AC10-43B6-BDCF-45FA095A9419}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228208F-908D-44CE-BB18-24656B27C42F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -10768,7 +10532,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10837,7 +10601,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B3" s="19">
         <v>17</v>
@@ -10849,7 +10613,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
@@ -10867,7 +10631,7 @@
         <v>500</v>
       </c>
       <c r="L3" s="12">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M3" s="12">
         <v>15000</v>
@@ -10884,7 +10648,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="18">
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="D4" s="33">
         <v>0.2</v>
@@ -10905,7 +10669,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="12">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M4"/>
     </row>
@@ -10940,7 +10704,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="26">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="28"/>
@@ -10980,7 +10744,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="28"/>
@@ -11027,7 +10791,7 @@
         <v>44</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11082,4 +10846,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="I2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2200</v>
+      </c>
+      <c r="I3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>75</v>
+      </c>
+      <c r="D4" s="41">
+        <v>50</v>
+      </c>
+      <c r="E4" s="41">
+        <v>25</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+    </row>
+    <row r="5" spans="1:26" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="I6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>150</v>
+      </c>
+      <c r="I9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+      <c r="I11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="39"/>
+      <c r="I12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I16"/>
+      <c r="M16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E4CF37-82D5-48B0-89C3-957D1C961B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3DFD49-7FD4-4465-B87F-A6258CFBC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="168">
   <si>
     <t>Years</t>
   </si>
@@ -521,9 +521,6 @@
     <t>Premium</t>
   </si>
   <si>
-    <t>HSA Deposit</t>
-  </si>
-  <si>
     <t>Chase</t>
   </si>
   <si>
@@ -552,6 +549,15 @@
   </si>
   <si>
     <t>IND-2</t>
+  </si>
+  <si>
+    <t>Traditional 401k</t>
+  </si>
+  <si>
+    <t>Roth 401k</t>
+  </si>
+  <si>
+    <t>Match 401k</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1371,6 +1377,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1741,7 +1750,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2028,68 +2037,96 @@
         <v>42</v>
       </c>
       <c r="C21" s="4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D21" s="4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E21" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="4">
+        <v>165</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="D23" s="76">
+        <v>0.13</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="54">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="4">
+      <c r="D24" s="76">
         <v>0</v>
-      </c>
-      <c r="D24" s="54">
-        <v>2.3E-2</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D25" s="76">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="54">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B29" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C29" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="20"/>
@@ -2359,45 +2396,67 @@
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
     </row>
-    <row r="104" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
     </row>
-    <row r="105" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2492,7 +2551,7 @@
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -2531,7 +2590,7 @@
       </c>
       <c r="B4" s="19">
         <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="18">
         <v>32000</v>
@@ -2562,11 +2621,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -2600,11 +2659,11 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="18">
         <v>30000</v>
@@ -2629,11 +2688,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2664,7 +2723,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
@@ -2693,11 +2752,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2751,15 +2810,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>48978</v>
+        <v>55417</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2785,11 +2844,11 @@
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C19" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>57637</v>
+        <v>47242</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2811,15 +2870,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>50463</v>
+        <v>46528</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2841,15 +2900,15 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B19" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>42871</v>
+        <v>58442</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2869,33 +2928,33 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="17" t="str">
         <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
-        <v>39</v>
-      </c>
-      <c r="B15" s="19">
+        <v/>
+      </c>
+      <c r="B15" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="C15" s="18">
+        <v/>
+      </c>
+      <c r="C15" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>58428</v>
-      </c>
-      <c r="D15" s="33">
+        <v/>
+      </c>
+      <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="33">
+        <v/>
+      </c>
+      <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F15" s="60">
+        <v/>
+      </c>
+      <c r="F15" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="37">
+        <v/>
+      </c>
+      <c r="G15" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9E-2</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -5014,7 +5073,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -5716,10 +5775,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5850,32 +5909,21 @@
       <c r="C11" s="44" t="b">
         <v>1</v>
       </c>
+      <c r="D11" s="45"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
+      <c r="A12" s="30"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6564,7 +6612,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6699,7 +6747,7 @@
       </c>
       <c r="B13" s="64">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>436000.00000000006</v>
+        <v>424000</v>
       </c>
       <c r="C13" s="64"/>
     </row>
@@ -6710,7 +6758,7 @@
       </c>
       <c r="B14" s="64">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>457800.00000000006</v>
+        <v>432480</v>
       </c>
       <c r="C14" s="64"/>
     </row>
@@ -6721,7 +6769,7 @@
       </c>
       <c r="B15" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>480690.00000000006</v>
+        <v>471403.2</v>
       </c>
       <c r="C15" s="64"/>
     </row>
@@ -6732,7 +6780,7 @@
       </c>
       <c r="B16" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>528759.00000000012</v>
+        <v>490259.32800000004</v>
       </c>
       <c r="C16" s="64"/>
     </row>
@@ -6743,7 +6791,7 @@
       </c>
       <c r="B17" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>565772.13000000012</v>
+        <v>504967.10784000007</v>
       </c>
       <c r="C17" s="64"/>
     </row>
@@ -6754,7 +6802,7 @@
       </c>
       <c r="B18" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>605376.17910000018</v>
+        <v>555463.81862400007</v>
       </c>
       <c r="C18" s="64"/>
     </row>
@@ -6765,7 +6813,7 @@
       </c>
       <c r="B19" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>653806.27342800028</v>
+        <v>611010.20048640016</v>
       </c>
       <c r="C19" s="64"/>
     </row>
@@ -6776,7 +6824,7 @@
       </c>
       <c r="B20" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>666882.39889656031</v>
+        <v>635450.60850585625</v>
       </c>
       <c r="C20" s="64"/>
     </row>
@@ -6787,7 +6835,7 @@
       </c>
       <c r="B21" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>686888.87086345709</v>
+        <v>692641.16327138338</v>
       </c>
       <c r="C21" s="64"/>
     </row>
@@ -6798,7 +6846,7 @@
       </c>
       <c r="B22" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>721233.31440663</v>
+        <v>720346.80980223871</v>
       </c>
       <c r="C22" s="64"/>
     </row>
@@ -6809,7 +6857,7 @@
       </c>
       <c r="B23" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>757294.98012696148</v>
+        <v>749160.68219432828</v>
       </c>
       <c r="C23" s="64"/>
     </row>
@@ -6820,7 +6868,7 @@
       </c>
       <c r="B24" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>817878.5785371185</v>
+        <v>824076.75041376112</v>
       </c>
       <c r="C24" s="64"/>
     </row>
@@ -6831,7 +6879,7 @@
       </c>
       <c r="B25" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>899666.43639083044</v>
+        <v>906484.42545513727</v>
       </c>
       <c r="C25" s="64"/>
     </row>
@@ -6842,7 +6890,7 @@
       </c>
       <c r="B26" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>953646.4225742803</v>
+        <v>951808.6467278942</v>
       </c>
       <c r="C26" s="64"/>
     </row>
@@ -7516,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -8062,7 +8110,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8078,7 +8126,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -8088,12 +8136,12 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>27</v>
@@ -8125,7 +8173,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="41"/>
@@ -8240,14 +8288,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="25">
         <f>130000-B9</f>
         <v>85000</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>31</v>
@@ -8261,13 +8309,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="25">
         <v>45000</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>30</v>
@@ -8281,13 +8329,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="25">
         <v>75000</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>31</v>
@@ -8301,13 +8349,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="25">
         <v>15000</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>30</v>
@@ -8922,7 +8970,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9161,19 +9209,19 @@
         <v>savings</v>
       </c>
       <c r="B12" s="22">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C12" s="22">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="D12" s="36">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E12" s="36">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="F12" s="36">
-        <v>125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -9629,7 +9677,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9640,7 +9688,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -9651,7 +9699,7 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +9879,7 @@
         <v>savings</v>
       </c>
       <c r="B13" s="23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="23">
         <v>0.01</v>
@@ -10855,7 +10903,7 @@
   </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>

--- a/python/Inputs/Inputs.xlsx
+++ b/python/Inputs/Inputs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repositories\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3DFD49-7FD4-4465-B87F-A6258CFBC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65F119-2C48-482D-9FFE-A319B089F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1382,8 +1382,14 @@
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1747,33 +1753,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.33203125" style="15"/>
+    <col min="1" max="1" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.28515625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1792,8 +1798,8 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -1826,7 +1832,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -1847,7 +1853,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
@@ -1868,7 +1874,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
@@ -1887,8 +1893,8 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -1907,7 +1913,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
@@ -1926,8 +1932,8 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
@@ -1960,11 +1966,11 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>103</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>104</v>
       </c>
@@ -2018,7 +2024,7 @@
       <c r="D19" s="53"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>105</v>
       </c>
@@ -2029,7 +2035,7 @@
       <c r="D20" s="53"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>106</v>
       </c>
@@ -2046,8 +2052,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>165</v>
       </c>
@@ -2062,7 +2068,7 @@
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>166</v>
       </c>
@@ -2077,7 +2083,7 @@
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>167</v>
       </c>
@@ -2085,14 +2091,14 @@
         <v>41</v>
       </c>
       <c r="C25" s="7">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="76">
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>107</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>109</v>
       </c>
@@ -2128,331 +2134,331 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
     </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
     </row>
-    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
     </row>
-    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
     </row>
-    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
     </row>
-    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
     </row>
-    <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
     </row>
-    <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
     </row>
-    <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110" s="20"/>
@@ -2474,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:M25"/>
@@ -2483,20 +2489,20 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="21.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2513,7 +2519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2545,13 +2551,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>-5</v>
       </c>
       <c r="B3" s="19">
         <f ca="1">A3+RANDBETWEEN(5,9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="18">
         <v>23500</v>
@@ -2584,13 +2590,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>-1</v>
       </c>
       <c r="B4" s="19">
         <f t="shared" ref="B4:B13" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18">
         <v>32000</v>
@@ -2618,14 +2624,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18">
         <v>30000</v>
@@ -2656,14 +2662,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="18">
         <v>30000</v>
@@ -2685,14 +2691,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2720,14 +2726,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="18">
         <v>22500</v>
@@ -2749,14 +2755,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2778,14 +2784,14 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="18">
         <v>22500</v>
@@ -2807,18 +2813,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>55417</v>
+        <v>55799</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2837,18 +2843,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C19" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>47242</v>
+        <v>46632</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2867,18 +2873,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>46528</v>
+        <v>53462</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2897,18 +2903,18 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B19" ca="1" si="6">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>58442</v>
+        <v>46945</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" ca="1" si="1"/>
@@ -2927,7 +2933,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="str">
         <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
         <v/>
@@ -2957,7 +2963,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="str">
         <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
         <v/>
@@ -2987,7 +2993,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="str">
         <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
         <v/>
@@ -3017,7 +3023,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="str">
         <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
         <v/>
@@ -3047,7 +3053,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="str">
         <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
         <v/>
@@ -3077,7 +3083,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="str">
         <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
         <v/>
@@ -3107,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="str">
         <f ca="1">IF(B19&lt;Inputs!$C$3,B19,"")</f>
         <v/>
@@ -3137,7 +3143,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="str">
         <f ca="1">IF(B20&lt;Inputs!$C$3,B20,"")</f>
         <v/>
@@ -3167,7 +3173,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="str">
         <f ca="1">IF(B21&lt;Inputs!$C$3,B21,"")</f>
         <v/>
@@ -3197,7 +3203,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="str">
         <f ca="1">IF(B22&lt;Inputs!$C$3,B22,"")</f>
         <v/>
@@ -3227,7 +3233,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="str">
         <f ca="1">IF(B23&lt;Inputs!$C$3,B23,"")</f>
         <v/>
@@ -3265,7 +3271,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M100"/>
@@ -3274,20 +3280,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +3322,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>52</v>
       </c>
@@ -3328,486 +3334,486 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="48"/>
       <c r="C5" s="58"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="48"/>
       <c r="C6" s="59"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="48"/>
       <c r="C7" s="59"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="48"/>
       <c r="C8" s="59"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="48"/>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="48"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="48"/>
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="48"/>
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="48"/>
       <c r="C13" s="59"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="48"/>
       <c r="C14" s="59"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="48"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="48"/>
       <c r="C16" s="59"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="48"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="48"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="48"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="48"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="48"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="48"/>
       <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="48"/>
       <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="48"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="48"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48"/>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="48"/>
       <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="48"/>
       <c r="C30" s="59"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="48"/>
       <c r="C54" s="59"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="48"/>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="48"/>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="48"/>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="48"/>
       <c r="C58" s="59"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="48"/>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="48"/>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="48"/>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="48"/>
       <c r="C62" s="59"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="48"/>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="48"/>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="48"/>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="48"/>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="48"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="48"/>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="48"/>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="48"/>
       <c r="C70" s="59"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="48"/>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="48"/>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="48"/>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="48"/>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="B75" s="48"/>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="48"/>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="48"/>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="48"/>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="48"/>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="48"/>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="B81" s="48"/>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="48"/>
       <c r="C82" s="59"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="48"/>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="B84" s="48"/>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="48"/>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="48"/>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="48"/>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="57"/>
       <c r="B88" s="48"/>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
       <c r="B89" s="48"/>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="48"/>
       <c r="C90" s="59"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="48"/>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="48"/>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="48"/>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="48"/>
       <c r="C94" s="59"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="48"/>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="48"/>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="48"/>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="48"/>
       <c r="C98" s="59"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="48"/>
       <c r="C99" s="59"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="48"/>
       <c r="C100" s="59"/>
@@ -3820,7 +3826,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F971-9022-47EF-A46E-8DC0E4F5AA23}">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:F100"/>
@@ -3829,12 +3835,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>145</v>
       </c>
@@ -3863,7 +3869,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>144</v>
       </c>
@@ -3875,7 +3881,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>147</v>
       </c>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>148</v>
       </c>
@@ -3899,7 +3905,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>150</v>
       </c>
@@ -3911,7 +3917,7 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>152</v>
       </c>
@@ -3923,462 +3929,462 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="48"/>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="48"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="48"/>
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="48"/>
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="48"/>
       <c r="C13" s="59"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="48"/>
       <c r="C14" s="59"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="48"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="48"/>
       <c r="C16" s="59"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="48"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="48"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="48"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="48"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="48"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="48"/>
       <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="48"/>
       <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="48"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="48"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48"/>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="48"/>
       <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="48"/>
       <c r="C30" s="59"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="48"/>
       <c r="C54" s="59"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="48"/>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="48"/>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="48"/>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="48"/>
       <c r="C58" s="59"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="48"/>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="48"/>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="48"/>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="48"/>
       <c r="C62" s="59"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="48"/>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="48"/>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="48"/>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="48"/>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="48"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="48"/>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="48"/>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="48"/>
       <c r="C70" s="59"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="48"/>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="48"/>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="48"/>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="48"/>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="B75" s="48"/>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="48"/>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="48"/>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="48"/>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="48"/>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="48"/>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="B81" s="48"/>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="48"/>
       <c r="C82" s="59"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="48"/>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="B84" s="48"/>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="48"/>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="48"/>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="48"/>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="57"/>
       <c r="B88" s="48"/>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
       <c r="B89" s="48"/>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="48"/>
       <c r="C90" s="59"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="48"/>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="48"/>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="48"/>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="48"/>
       <c r="C94" s="59"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="48"/>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="48"/>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="48"/>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="48"/>
       <c r="C98" s="59"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="48"/>
       <c r="C99" s="59"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="48"/>
       <c r="C100" s="59"/>
@@ -4391,7 +4397,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44382-030D-4D66-91A6-AD13ADE699AE}">
-  <sheetPr>
+  <sheetPr codeName="Sheet13">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:F100"/>
@@ -4400,12 +4406,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>
@@ -4446,486 +4452,486 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="48"/>
       <c r="C5" s="58"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="48"/>
       <c r="C6" s="59"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="48"/>
       <c r="C7" s="59"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="48"/>
       <c r="C8" s="59"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="48"/>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="48"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="48"/>
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="48"/>
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="48"/>
       <c r="C13" s="59"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="48"/>
       <c r="C14" s="59"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="48"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="48"/>
       <c r="C16" s="59"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="48"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="48"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="48"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="48"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="48"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="48"/>
       <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="48"/>
       <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="48"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="48"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48"/>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="48"/>
       <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="48"/>
       <c r="C30" s="59"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="48"/>
       <c r="C54" s="59"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="48"/>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="48"/>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="48"/>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="48"/>
       <c r="C58" s="59"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="48"/>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="48"/>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="48"/>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="48"/>
       <c r="C62" s="59"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="48"/>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="48"/>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="48"/>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="48"/>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="48"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="48"/>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="48"/>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="48"/>
       <c r="C70" s="59"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="48"/>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="48"/>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="48"/>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="48"/>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="B75" s="48"/>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="48"/>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="48"/>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="48"/>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="48"/>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="48"/>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="B81" s="48"/>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="48"/>
       <c r="C82" s="59"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="48"/>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="B84" s="48"/>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="48"/>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="48"/>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="48"/>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="57"/>
       <c r="B88" s="48"/>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
       <c r="B89" s="48"/>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="48"/>
       <c r="C90" s="59"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="48"/>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="48"/>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="48"/>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="48"/>
       <c r="C94" s="59"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="48"/>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="48"/>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="48"/>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="48"/>
       <c r="C98" s="59"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="48"/>
       <c r="C99" s="59"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="48"/>
       <c r="C100" s="59"/>
@@ -4938,7 +4944,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M9"/>
@@ -4947,17 +4953,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="30" customWidth="1"/>
-    <col min="10" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="30" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +4975,7 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -4981,7 +4987,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
@@ -5000,7 +5006,7 @@
       </c>
       <c r="M4" s="42"/>
     </row>
-    <row r="5" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -5021,7 +5027,7 @@
       </c>
       <c r="M5" s="42"/>
     </row>
-    <row r="6" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -5037,7 +5043,7 @@
       <c r="E6" s="42"/>
       <c r="M6" s="42"/>
     </row>
-    <row r="7" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="43" t="s">
         <v>62</v>
       </c>
@@ -5048,7 +5054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>44</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>57</v>
       </c>
@@ -5085,7 +5091,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
-  <sheetPr>
+  <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M102"/>
@@ -5094,21 +5100,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5137,7 +5143,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -5149,7 +5155,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -5161,7 +5167,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>67</v>
       </c>
@@ -5173,7 +5179,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>68</v>
       </c>
@@ -5184,478 +5190,478 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="48"/>
       <c r="C8" s="59"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="48"/>
       <c r="C9" s="59"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="48"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="48"/>
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="48"/>
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="48"/>
       <c r="C13" s="59"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="48"/>
       <c r="C14" s="59"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="48"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="48"/>
       <c r="C16" s="59"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="48"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="48"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="48"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="48"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="48"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="48"/>
       <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="48"/>
       <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="48"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="48"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48"/>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="48"/>
       <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="48"/>
       <c r="C30" s="59"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="48"/>
       <c r="C54" s="59"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="48"/>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="48"/>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="48"/>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="48"/>
       <c r="C58" s="59"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="48"/>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="48"/>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="48"/>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="48"/>
       <c r="C62" s="59"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="48"/>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="48"/>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="48"/>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="48"/>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="48"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="48"/>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="48"/>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="48"/>
       <c r="C70" s="59"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="48"/>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="48"/>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="48"/>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="48"/>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="B75" s="48"/>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="48"/>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="48"/>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="48"/>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="48"/>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="48"/>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="B81" s="48"/>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="48"/>
       <c r="C82" s="59"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="48"/>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="B84" s="48"/>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="48"/>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="48"/>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="48"/>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="57"/>
       <c r="B88" s="48"/>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
       <c r="B89" s="48"/>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="48"/>
       <c r="C90" s="59"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="48"/>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="48"/>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="48"/>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="48"/>
       <c r="C94" s="59"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="48"/>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="48"/>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="48"/>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="48"/>
       <c r="C98" s="59"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="48"/>
       <c r="C99" s="59"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="48"/>
       <c r="C100" s="59"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="57"/>
       <c r="B101" s="48"/>
       <c r="C101" s="59"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="48"/>
       <c r="C102" s="59"/>
@@ -5668,7 +5674,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet16">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M7"/>
@@ -5677,18 +5683,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="30" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="30" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
@@ -5700,8 +5706,8 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>137</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>44</v>
       </c>
@@ -5772,7 +5778,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
-  <sheetPr>
+  <sheetPr codeName="Sheet17">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M13"/>
@@ -5781,20 +5787,20 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
@@ -5806,7 +5812,7 @@
       </c>
       <c r="D2" s="45"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5819,7 +5825,7 @@
       <c r="D3" s="45"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5830,7 +5836,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -5843,12 +5849,12 @@
       <c r="D5" s="45"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="39"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -5894,12 +5900,12 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="39"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -5912,11 +5918,11 @@
       <c r="D11" s="45"/>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>44</v>
       </c>
@@ -5933,7 +5939,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet18">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M102"/>
@@ -5942,20 +5948,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -5984,7 +5990,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -5996,7 +6002,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6008,490 +6014,490 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="48"/>
       <c r="C6" s="58"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="48"/>
       <c r="C7" s="58"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="48"/>
       <c r="C8" s="59"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="48"/>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="48"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="48"/>
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="48"/>
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="48"/>
       <c r="C13" s="59"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="48"/>
       <c r="C14" s="59"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="48"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="48"/>
       <c r="C16" s="59"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="48"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="48"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="48"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="48"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="48"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="48"/>
       <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="48"/>
       <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="48"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="48"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48"/>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="48"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="48"/>
       <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="48"/>
       <c r="C30" s="59"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="48"/>
       <c r="C31" s="59"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="48"/>
       <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="48"/>
       <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="48"/>
       <c r="C34" s="59"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="48"/>
       <c r="C35" s="59"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="48"/>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="48"/>
       <c r="C37" s="59"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="48"/>
       <c r="C38" s="59"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="48"/>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="48"/>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="48"/>
       <c r="C41" s="59"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="48"/>
       <c r="C42" s="59"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="48"/>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="48"/>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="48"/>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="48"/>
       <c r="C46" s="59"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="48"/>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="48"/>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="48"/>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="48"/>
       <c r="C50" s="59"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="48"/>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="48"/>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="48"/>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="48"/>
       <c r="C54" s="59"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="48"/>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="48"/>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="48"/>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="48"/>
       <c r="C58" s="59"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="48"/>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="48"/>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="48"/>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="48"/>
       <c r="C62" s="59"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="48"/>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="48"/>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="48"/>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="48"/>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="48"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="48"/>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="48"/>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="48"/>
       <c r="C70" s="59"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="48"/>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="48"/>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="48"/>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="48"/>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="B75" s="48"/>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="48"/>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="48"/>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="48"/>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="48"/>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="48"/>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="B81" s="48"/>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="48"/>
       <c r="C82" s="59"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="48"/>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="B84" s="48"/>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="48"/>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="48"/>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="48"/>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="57"/>
       <c r="B88" s="48"/>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
       <c r="B89" s="48"/>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="48"/>
       <c r="C90" s="59"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="48"/>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="48"/>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="48"/>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="48"/>
       <c r="C94" s="59"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="48"/>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="48"/>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="48"/>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="48"/>
       <c r="C98" s="59"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="48"/>
       <c r="C99" s="59"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="48"/>
       <c r="C100" s="59"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="57"/>
       <c r="B101" s="48"/>
       <c r="C101" s="59"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="48"/>
       <c r="C102" s="59"/>
@@ -6504,7 +6510,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
-  <sheetPr>
+  <sheetPr codeName="Sheet19">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M11"/>
@@ -6513,19 +6519,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -6537,7 +6543,7 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
@@ -6549,7 +6555,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
@@ -6561,7 +6567,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
@@ -6573,11 +6579,11 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>44</v>
       </c>
@@ -6586,16 +6592,16 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="28"/>
     </row>
   </sheetData>
@@ -6606,7 +6612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:C100"/>
@@ -6615,14 +6621,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="63"/>
-    <col min="2" max="2" width="11.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="65"/>
+    <col min="1" max="1" width="9.140625" style="63"/>
+    <col min="2" max="2" width="11.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6631,7 +6637,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="62">
         <v>0</v>
       </c>
@@ -6640,7 +6646,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="66">
         <f>A2+1</f>
         <v>1</v>
@@ -6650,7 +6656,7 @@
       </c>
       <c r="C3" s="64"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66">
         <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>2</v>
@@ -6660,7 +6666,7 @@
       </c>
       <c r="C4" s="64"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6670,7 +6676,7 @@
       </c>
       <c r="C5" s="64"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6680,7 +6686,7 @@
       </c>
       <c r="C6" s="64"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6690,7 +6696,7 @@
       </c>
       <c r="C7" s="64"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6700,7 +6706,7 @@
       </c>
       <c r="C8" s="64"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6710,7 +6716,7 @@
       </c>
       <c r="C9" s="64"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6720,7 +6726,7 @@
       </c>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="66">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6730,7 +6736,7 @@
       </c>
       <c r="C11" s="64"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="66">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6740,526 +6746,526 @@
       </c>
       <c r="C12" s="64"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="64">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>424000</v>
+        <v>440000.00000000006</v>
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="66">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="64">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>432480</v>
+        <v>466400.00000000006</v>
       </c>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>471403.2</v>
+        <v>499048.00000000012</v>
       </c>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>490259.32800000004</v>
+        <v>514019.44000000012</v>
       </c>
       <c r="C16" s="64"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>504967.10784000007</v>
+        <v>565421.38400000019</v>
       </c>
       <c r="C17" s="64"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="66">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>555463.81862400007</v>
+        <v>593692.45320000022</v>
       </c>
       <c r="C18" s="64"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>611010.20048640016</v>
+        <v>647124.77398800023</v>
       </c>
       <c r="C19" s="64"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>635450.60850585625</v>
+        <v>673009.76494752022</v>
       </c>
       <c r="C20" s="64"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>692641.16327138338</v>
+        <v>726850.5461433219</v>
       </c>
       <c r="C21" s="64"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="66">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>720346.80980223871</v>
+        <v>799535.60075765417</v>
       </c>
       <c r="C22" s="64"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>749160.68219432828</v>
+        <v>863498.44881826651</v>
       </c>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>824076.75041376112</v>
+        <v>898038.3867709972</v>
       </c>
       <c r="C24" s="64"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>906484.42545513727</v>
+        <v>951920.68997725705</v>
       </c>
       <c r="C25" s="64"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>951808.6467278942</v>
+        <v>989997.51757634734</v>
       </c>
       <c r="C26" s="64"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="66"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="66"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="66"/>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="66"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="66"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="66"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="66"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="66"/>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="66"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="66"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="66"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="66"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="66"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="66"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="66"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="66"/>
       <c r="B59" s="64"/>
       <c r="C59" s="64"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="66"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="66"/>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="66"/>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="66"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="66"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="66"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="66"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="66"/>
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="66"/>
       <c r="B71" s="64"/>
       <c r="C71" s="64"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="66"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="66"/>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="66"/>
       <c r="B74" s="64"/>
       <c r="C74" s="64"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="66"/>
       <c r="B75" s="64"/>
       <c r="C75" s="64"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="66"/>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="66"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="66"/>
       <c r="B78" s="64"/>
       <c r="C78" s="64"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="66"/>
       <c r="B79" s="64"/>
       <c r="C79" s="64"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="66"/>
       <c r="B80" s="64"/>
       <c r="C80" s="64"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="64"/>
       <c r="C81" s="64"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="64"/>
       <c r="C83" s="64"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="64"/>
       <c r="C84" s="64"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="64"/>
       <c r="C85" s="64"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="66"/>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="66"/>
       <c r="B87" s="64"/>
       <c r="C87" s="64"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="66"/>
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="66"/>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="66"/>
       <c r="B90" s="64"/>
       <c r="C90" s="64"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="66"/>
       <c r="B91" s="64"/>
       <c r="C91" s="64"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="66"/>
       <c r="B92" s="64"/>
       <c r="C92" s="64"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="66"/>
       <c r="B93" s="64"/>
       <c r="C93" s="64"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="66"/>
       <c r="B94" s="64"/>
       <c r="C94" s="64"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="B95" s="64"/>
       <c r="C95" s="64"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="66"/>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="64"/>
       <c r="C97" s="64"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="B98" s="64"/>
       <c r="C98" s="64"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="66"/>
       <c r="B99" s="64"/>
       <c r="C99" s="64"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="66"/>
       <c r="B100" s="64"/>
       <c r="C100" s="64"/>
@@ -7271,7 +7277,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3623E-739B-4E92-BD1F-A85E8AE93729}">
-  <sheetPr>
+  <sheetPr codeName="Sheet20">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M10"/>
@@ -7280,19 +7286,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>84</v>
       </c>
@@ -7326,7 +7332,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>77</v>
       </c>
@@ -7338,7 +7344,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>83</v>
       </c>
@@ -7350,7 +7356,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>85</v>
       </c>
@@ -7362,7 +7368,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>86</v>
       </c>
@@ -7379,11 +7385,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>44</v>
       </c>
@@ -7400,7 +7406,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952CE758-0D5B-42FD-99EA-05A20ACE7083}">
-  <sheetPr>
+  <sheetPr codeName="Sheet21">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:N8"/>
@@ -7409,21 +7415,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="19" customWidth="1"/>
     <col min="3" max="4" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="28"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="9" t="s">
@@ -7433,7 +7439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -7453,22 +7459,22 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="28"/>
     </row>
   </sheetData>
@@ -7479,7 +7485,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24977A-EA5F-4BA3-9B84-B620814A1B9D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet22">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A2:M5"/>
@@ -7488,20 +7494,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -7513,7 +7519,7 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -7523,11 +7529,11 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
@@ -7544,7 +7550,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4304C-331C-4AAE-B30A-A79C47FFD291}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:C100"/>
@@ -7553,13 +7559,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="63"/>
-    <col min="2" max="3" width="17.109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="63"/>
+    <col min="2" max="3" width="17.140625" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7568,7 +7574,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="66">
         <v>-5</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>88428</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="66">
         <f>A2+1</f>
         <v>-4</v>
@@ -7591,7 +7597,7 @@
         <v>80354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66">
         <f>A3+1</f>
         <v>-3</v>
@@ -7603,7 +7609,7 @@
         <v>94175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <f>A4+1</f>
         <v>-2</v>
@@ -7615,7 +7621,7 @@
         <v>93107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66">
         <f>A5+1</f>
         <v>-1</v>
@@ -7627,472 +7633,472 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="66"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="66"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="66"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="66"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="66"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="66"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="66"/>
       <c r="B49" s="74"/>
       <c r="C49" s="74"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="66"/>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="66"/>
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="66"/>
       <c r="B53" s="74"/>
       <c r="C53" s="74"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="66"/>
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="66"/>
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="66"/>
       <c r="B56" s="74"/>
       <c r="C56" s="74"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="66"/>
       <c r="B57" s="74"/>
       <c r="C57" s="74"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="66"/>
       <c r="B58" s="74"/>
       <c r="C58" s="74"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="66"/>
       <c r="B59" s="74"/>
       <c r="C59" s="74"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="B60" s="74"/>
       <c r="C60" s="74"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="66"/>
       <c r="B61" s="74"/>
       <c r="C61" s="74"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
       <c r="B62" s="74"/>
       <c r="C62" s="74"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="66"/>
       <c r="B63" s="74"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="66"/>
       <c r="B64" s="74"/>
       <c r="C64" s="74"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="66"/>
       <c r="B65" s="74"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
       <c r="B66" s="74"/>
       <c r="C66" s="74"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="66"/>
       <c r="B67" s="74"/>
       <c r="C67" s="74"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="66"/>
       <c r="B68" s="74"/>
       <c r="C68" s="74"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="66"/>
       <c r="B69" s="74"/>
       <c r="C69" s="74"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="66"/>
       <c r="B70" s="74"/>
       <c r="C70" s="74"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="66"/>
       <c r="B71" s="74"/>
       <c r="C71" s="74"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="66"/>
       <c r="B72" s="74"/>
       <c r="C72" s="74"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="66"/>
       <c r="B73" s="74"/>
       <c r="C73" s="74"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="66"/>
       <c r="B74" s="74"/>
       <c r="C74" s="74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="66"/>
       <c r="B75" s="74"/>
       <c r="C75" s="74"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="66"/>
       <c r="B76" s="74"/>
       <c r="C76" s="74"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="66"/>
       <c r="B77" s="74"/>
       <c r="C77" s="74"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="66"/>
       <c r="B78" s="74"/>
       <c r="C78" s="74"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="66"/>
       <c r="B79" s="74"/>
       <c r="C79" s="74"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="66"/>
       <c r="B80" s="74"/>
       <c r="C80" s="74"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="74"/>
       <c r="C81" s="74"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="74"/>
       <c r="C82" s="74"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="74"/>
       <c r="C83" s="74"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="74"/>
       <c r="C84" s="74"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="74"/>
       <c r="C85" s="74"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="66"/>
       <c r="B86" s="74"/>
       <c r="C86" s="74"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="66"/>
       <c r="B87" s="74"/>
       <c r="C87" s="74"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="66"/>
       <c r="B88" s="74"/>
       <c r="C88" s="74"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="66"/>
       <c r="B89" s="74"/>
       <c r="C89" s="74"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="66"/>
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="66"/>
       <c r="B91" s="74"/>
       <c r="C91" s="74"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="66"/>
       <c r="B92" s="74"/>
       <c r="C92" s="74"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="66"/>
       <c r="B93" s="74"/>
       <c r="C93" s="74"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="66"/>
       <c r="B94" s="74"/>
       <c r="C94" s="74"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="B95" s="74"/>
       <c r="C95" s="74"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="66"/>
       <c r="B96" s="74"/>
       <c r="C96" s="74"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="74"/>
       <c r="C97" s="74"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="B98" s="74"/>
       <c r="C98" s="74"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="66"/>
       <c r="B99" s="74"/>
       <c r="C99" s="74"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="66"/>
       <c r="B100" s="74"/>
       <c r="C100" s="74"/>
@@ -8104,29 +8110,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49DA5D-4944-4CAF-B436-E7E5AFCEF148}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -8135,8 +8141,8 @@
       <c r="C1" s="13"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
@@ -8175,14 +8181,15 @@
       <c r="E3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="77">
+        <v>5</v>
+      </c>
       <c r="G3" s="41"/>
-      <c r="H3" s="73" t="str">
-        <f>A5</f>
-        <v>cdBond</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
@@ -8198,19 +8205,17 @@
       <c r="E4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="73" t="str">
-        <f>A3</f>
-        <v>highDividend</v>
+      <c r="F4" s="77">
+        <v>4</v>
       </c>
       <c r="G4" s="41">
         <v>5000000</v>
       </c>
-      <c r="H4" s="73" t="str">
-        <f>A3</f>
-        <v>highDividend</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>118</v>
       </c>
@@ -8226,11 +8231,13 @@
       <c r="E5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
@@ -8246,19 +8253,17 @@
       <c r="E6" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="73" t="str">
-        <f>A4</f>
-        <v>lowVolatility</v>
+      <c r="F6" s="77">
+        <v>3</v>
       </c>
       <c r="G6" s="41">
         <v>2500000</v>
       </c>
-      <c r="H6" s="73" t="str">
-        <f>A4</f>
-        <v>lowVolatility</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>116</v>
       </c>
@@ -8274,19 +8279,17 @@
       <c r="E7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="73" t="str">
-        <f>A6</f>
-        <v>indexFund</v>
+      <c r="F7" s="77">
+        <v>2</v>
       </c>
       <c r="G7" s="41">
         <v>2500000</v>
       </c>
-      <c r="H7" s="73" t="str">
-        <f>A6</f>
-        <v>indexFund</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>159</v>
       </c>
@@ -8303,11 +8306,11 @@
       <c r="E8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>160</v>
       </c>
@@ -8323,11 +8326,11 @@
       <c r="E9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>161</v>
       </c>
@@ -8343,11 +8346,11 @@
       <c r="E10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>162</v>
       </c>
@@ -8363,11 +8366,11 @@
       <c r="E11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="79"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
@@ -8383,17 +8386,11 @@
       <c r="E12" s="20">
         <v>529</v>
       </c>
-      <c r="F12" s="73" t="str">
-        <f>A13</f>
-        <v>savings</v>
-      </c>
+      <c r="F12" s="77"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="73" t="str">
-        <f>A13</f>
-        <v>savings</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>119</v>
       </c>
@@ -8409,535 +8406,533 @@
       <c r="E13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="73" t="str">
-        <f>A7</f>
-        <v>etfFund</v>
+      <c r="F13" s="77">
+        <v>1</v>
       </c>
       <c r="G13" s="41">
         <v>100000</v>
       </c>
-      <c r="H13" s="73" t="str">
-        <f>A7</f>
-        <v>etfFund</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="20"/>
       <c r="F14" s="73"/>
       <c r="G14" s="41"/>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15" s="20"/>
       <c r="F15" s="73"/>
       <c r="G15" s="41"/>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="20"/>
       <c r="F16" s="73"/>
       <c r="G16" s="41"/>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="20"/>
       <c r="F17" s="73"/>
       <c r="G17" s="41"/>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="20"/>
       <c r="F18" s="73"/>
       <c r="G18" s="41"/>
       <c r="H18" s="73"/>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="20"/>
       <c r="F19" s="73"/>
       <c r="G19" s="41"/>
       <c r="H19" s="73"/>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="20"/>
       <c r="F20" s="73"/>
       <c r="G20" s="41"/>
       <c r="H20" s="73"/>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="20"/>
       <c r="F21" s="73"/>
       <c r="G21" s="41"/>
       <c r="H21" s="73"/>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="20"/>
       <c r="F22" s="73"/>
       <c r="G22" s="41"/>
       <c r="H22" s="73"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="20"/>
       <c r="F23" s="73"/>
       <c r="G23" s="41"/>
       <c r="H23" s="73"/>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="20"/>
       <c r="F24" s="73"/>
       <c r="G24" s="41"/>
       <c r="H24" s="73"/>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="20"/>
       <c r="F25" s="73"/>
       <c r="G25" s="41"/>
       <c r="H25" s="73"/>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="20"/>
       <c r="F26" s="73"/>
       <c r="G26" s="41"/>
       <c r="H26" s="73"/>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="20"/>
       <c r="F27" s="73"/>
       <c r="G27" s="41"/>
       <c r="H27" s="73"/>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="20"/>
       <c r="F28" s="73"/>
       <c r="G28" s="41"/>
       <c r="H28" s="73"/>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="20"/>
       <c r="F29" s="73"/>
       <c r="G29" s="41"/>
       <c r="H29" s="73"/>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="20"/>
       <c r="F30" s="73"/>
       <c r="G30" s="41"/>
       <c r="H30" s="73"/>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="20"/>
       <c r="F31" s="73"/>
       <c r="G31" s="41"/>
       <c r="H31" s="73"/>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="20"/>
       <c r="F32" s="73"/>
       <c r="G32" s="41"/>
       <c r="H32" s="73"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="20"/>
       <c r="F33" s="73"/>
       <c r="G33" s="41"/>
       <c r="H33" s="73"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="20"/>
       <c r="F34" s="73"/>
       <c r="G34" s="41"/>
       <c r="H34" s="73"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="20"/>
       <c r="F35" s="73"/>
       <c r="G35" s="41"/>
       <c r="H35" s="73"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="20"/>
       <c r="F36" s="73"/>
       <c r="G36" s="41"/>
       <c r="H36" s="73"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="20"/>
       <c r="F37" s="73"/>
       <c r="G37" s="41"/>
       <c r="H37" s="73"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="20"/>
       <c r="F38" s="73"/>
       <c r="G38" s="41"/>
       <c r="H38" s="73"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="20"/>
       <c r="F39" s="73"/>
       <c r="G39" s="41"/>
       <c r="H39" s="73"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="20"/>
       <c r="F40" s="73"/>
       <c r="G40" s="41"/>
       <c r="H40" s="73"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="20"/>
       <c r="F41" s="73"/>
       <c r="G41" s="41"/>
       <c r="H41" s="73"/>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="20"/>
       <c r="F42" s="73"/>
       <c r="G42" s="41"/>
       <c r="H42" s="73"/>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="20"/>
       <c r="F43" s="73"/>
       <c r="G43" s="41"/>
       <c r="H43" s="73"/>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="20"/>
       <c r="F44" s="73"/>
       <c r="G44" s="41"/>
       <c r="H44" s="73"/>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="20"/>
       <c r="F45" s="73"/>
       <c r="G45" s="41"/>
       <c r="H45" s="73"/>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="20"/>
       <c r="F46" s="73"/>
       <c r="G46" s="41"/>
       <c r="H46" s="73"/>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="20"/>
       <c r="F47" s="73"/>
       <c r="G47" s="41"/>
       <c r="H47" s="73"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="20"/>
       <c r="F48" s="73"/>
       <c r="G48" s="41"/>
       <c r="H48" s="73"/>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="20"/>
       <c r="F49" s="73"/>
       <c r="G49" s="41"/>
       <c r="H49" s="73"/>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="20"/>
       <c r="F50" s="73"/>
       <c r="G50" s="41"/>
       <c r="H50" s="73"/>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="20"/>
       <c r="F51" s="73"/>
       <c r="G51" s="41"/>
       <c r="H51" s="73"/>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="20"/>
       <c r="F52" s="73"/>
       <c r="G52" s="41"/>
       <c r="H52" s="73"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="20"/>
       <c r="F53" s="73"/>
       <c r="G53" s="41"/>
       <c r="H53" s="73"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="20"/>
       <c r="F54" s="73"/>
       <c r="G54" s="41"/>
       <c r="H54" s="73"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E55" s="20"/>
       <c r="F55" s="73"/>
       <c r="G55" s="41"/>
       <c r="H55" s="73"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E56" s="20"/>
       <c r="F56" s="73"/>
       <c r="G56" s="41"/>
       <c r="H56" s="73"/>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E57" s="20"/>
       <c r="F57" s="73"/>
       <c r="G57" s="41"/>
       <c r="H57" s="73"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E58" s="20"/>
       <c r="F58" s="73"/>
       <c r="G58" s="41"/>
       <c r="H58" s="73"/>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E59" s="20"/>
       <c r="F59" s="73"/>
       <c r="G59" s="41"/>
       <c r="H59" s="73"/>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E60" s="20"/>
       <c r="F60" s="73"/>
       <c r="G60" s="41"/>
       <c r="H60" s="73"/>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E61" s="20"/>
       <c r="F61" s="73"/>
       <c r="G61" s="41"/>
       <c r="H61" s="73"/>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E62" s="20"/>
       <c r="F62" s="73"/>
       <c r="G62" s="41"/>
       <c r="H62" s="73"/>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E63" s="20"/>
       <c r="F63" s="73"/>
       <c r="G63" s="41"/>
       <c r="H63" s="73"/>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E64" s="20"/>
       <c r="F64" s="73"/>
       <c r="G64" s="41"/>
       <c r="H64" s="73"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="20"/>
       <c r="F65" s="73"/>
       <c r="G65" s="41"/>
       <c r="H65" s="73"/>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="20"/>
       <c r="F66" s="73"/>
       <c r="G66" s="41"/>
       <c r="H66" s="73"/>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="20"/>
       <c r="F67" s="73"/>
       <c r="G67" s="41"/>
       <c r="H67" s="73"/>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" s="20"/>
       <c r="F68" s="73"/>
       <c r="G68" s="41"/>
       <c r="H68" s="73"/>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" s="20"/>
       <c r="F69" s="73"/>
       <c r="G69" s="41"/>
       <c r="H69" s="73"/>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" s="20"/>
       <c r="F70" s="73"/>
       <c r="G70" s="41"/>
       <c r="H70" s="73"/>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" s="20"/>
       <c r="F71" s="73"/>
       <c r="G71" s="41"/>
       <c r="H71" s="73"/>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" s="20"/>
       <c r="F72" s="73"/>
       <c r="G72" s="41"/>
       <c r="H72" s="73"/>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" s="20"/>
       <c r="F73" s="73"/>
       <c r="G73" s="41"/>
       <c r="H73" s="73"/>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" s="20"/>
       <c r="F74" s="73"/>
       <c r="G74" s="41"/>
       <c r="H74" s="73"/>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" s="20"/>
       <c r="F75" s="73"/>
       <c r="G75" s="41"/>
       <c r="H75" s="73"/>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" s="20"/>
       <c r="F76" s="73"/>
       <c r="G76" s="41"/>
       <c r="H76" s="73"/>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" s="20"/>
       <c r="F77" s="73"/>
       <c r="G77" s="41"/>
       <c r="H77" s="73"/>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" s="20"/>
       <c r="F78" s="73"/>
       <c r="G78" s="41"/>
       <c r="H78" s="73"/>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" s="20"/>
       <c r="F79" s="73"/>
       <c r="G79" s="41"/>
       <c r="H79" s="73"/>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" s="20"/>
       <c r="F80" s="73"/>
       <c r="G80" s="41"/>
       <c r="H80" s="73"/>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E81" s="20"/>
       <c r="F81" s="73"/>
       <c r="G81" s="41"/>
       <c r="H81" s="73"/>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E82" s="20"/>
       <c r="F82" s="73"/>
       <c r="G82" s="41"/>
       <c r="H82" s="73"/>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E83" s="20"/>
       <c r="F83" s="73"/>
       <c r="G83" s="41"/>
       <c r="H83" s="73"/>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E84" s="20"/>
       <c r="F84" s="73"/>
       <c r="G84" s="41"/>
       <c r="H84" s="73"/>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E85" s="20"/>
       <c r="F85" s="73"/>
       <c r="G85" s="41"/>
       <c r="H85" s="73"/>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E86" s="20"/>
       <c r="F86" s="73"/>
       <c r="G86" s="41"/>
       <c r="H86" s="73"/>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E87" s="20"/>
       <c r="F87" s="73"/>
       <c r="G87" s="41"/>
       <c r="H87" s="73"/>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E88" s="20"/>
       <c r="F88" s="73"/>
       <c r="G88" s="41"/>
       <c r="H88" s="73"/>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E89" s="20"/>
       <c r="F89" s="73"/>
       <c r="G89" s="41"/>
       <c r="H89" s="73"/>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E90" s="20"/>
       <c r="F90" s="73"/>
       <c r="G90" s="41"/>
       <c r="H90" s="73"/>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E91" s="20"/>
       <c r="F91" s="73"/>
       <c r="G91" s="41"/>
       <c r="H91" s="73"/>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E92" s="20"/>
       <c r="F92" s="73"/>
       <c r="G92" s="41"/>
       <c r="H92" s="73"/>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E93" s="20"/>
       <c r="F93" s="73"/>
       <c r="G93" s="41"/>
       <c r="H93" s="73"/>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E94" s="20"/>
       <c r="F94" s="73"/>
       <c r="G94" s="41"/>
       <c r="H94" s="73"/>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E95" s="20"/>
       <c r="F95" s="73"/>
       <c r="G95" s="41"/>
       <c r="H95" s="73"/>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E96" s="20"/>
       <c r="F96" s="73"/>
       <c r="G96" s="41"/>
       <c r="H96" s="73"/>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E97" s="20"/>
       <c r="F97" s="73"/>
       <c r="G97" s="41"/>
       <c r="H97" s="73"/>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E98" s="20"/>
       <c r="F98" s="73"/>
       <c r="G98" s="41"/>
       <c r="H98" s="73"/>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E99" s="20"/>
       <c r="F99" s="73"/>
       <c r="G99" s="41"/>
       <c r="H99" s="73"/>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E100" s="20"/>
       <c r="F100" s="73"/>
       <c r="G100" s="41"/>
@@ -8964,22 +8959,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CE992E-FAF4-40CB-8323-EE3FED99FC40}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -8991,7 +8986,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="str">
         <f>Accounts!A3</f>
         <v>highDividend</v>
@@ -9012,7 +9007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="str">
         <f>Accounts!A4</f>
         <v>lowVolatility</v>
@@ -9033,7 +9028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="str">
         <f>Accounts!A5</f>
         <v>cdBond</v>
@@ -9054,7 +9049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>Accounts!A6</f>
         <v>indexFund</v>
@@ -9075,7 +9070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>Accounts!A7</f>
         <v>etfFund</v>
@@ -9096,7 +9091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="str">
         <f>Accounts!A8</f>
         <v>roth401k_rich</v>
@@ -9117,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>Accounts!A9</f>
         <v>trad401k_rich</v>
@@ -9138,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>Accounts!A10</f>
         <v>roth401k_becca</v>
@@ -9159,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f>Accounts!A11</f>
         <v>trad401k_becca</v>
@@ -9180,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f>Accounts!A12</f>
         <v>college529</v>
@@ -9203,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f>Accounts!A13</f>
         <v>savings</v>
@@ -9215,451 +9210,451 @@
         <v>10</v>
       </c>
       <c r="D12" s="36">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E12" s="36">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
     </row>
-    <row r="24" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
     </row>
-    <row r="32" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
     </row>
-    <row r="33" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
     </row>
-    <row r="38" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
     </row>
-    <row r="41" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
     </row>
-    <row r="42" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
     </row>
-    <row r="46" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
     </row>
-    <row r="47" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
     </row>
-    <row r="48" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
     </row>
-    <row r="50" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
     </row>
-    <row r="51" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
     </row>
-    <row r="52" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
     </row>
-    <row r="53" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
-    <row r="56" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
     </row>
-    <row r="57" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
     </row>
-    <row r="58" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
     </row>
-    <row r="59" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
     </row>
-    <row r="60" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
     </row>
-    <row r="61" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
     </row>
-    <row r="62" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
     </row>
-    <row r="63" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
     </row>
-    <row r="64" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
     </row>
-    <row r="65" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
-    <row r="66" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
-    <row r="67" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
     </row>
-    <row r="68" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
     </row>
-    <row r="69" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
     </row>
-    <row r="70" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
     </row>
-    <row r="71" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
     </row>
-    <row r="72" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
     </row>
-    <row r="79" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
     </row>
-    <row r="80" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
     </row>
-    <row r="81" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
     </row>
-    <row r="82" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
     </row>
-    <row r="83" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
     </row>
-    <row r="84" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
     </row>
-    <row r="85" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
     </row>
-    <row r="86" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
     </row>
-    <row r="87" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
     </row>
-    <row r="88" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
     </row>
-    <row r="89" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
     </row>
-    <row r="90" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
     </row>
-    <row r="91" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
     </row>
-    <row r="92" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
     </row>
-    <row r="93" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
     </row>
-    <row r="94" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
     </row>
-    <row r="95" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
     </row>
-    <row r="97" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
     </row>
-    <row r="99" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
     </row>
-    <row r="100" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -9671,7 +9666,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CA22D-5C95-47B0-8C30-F5F775E3CBBB}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -9680,15 +9675,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -9698,8 +9693,8 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -9713,7 +9708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="str">
         <f>Accounts!A3</f>
         <v>highDividend</v>
@@ -9727,7 +9722,7 @@
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="str">
         <f>Accounts!A4</f>
         <v>lowVolatility</v>
@@ -9741,7 +9736,7 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>Accounts!A5</f>
         <v>cdBond</v>
@@ -9755,7 +9750,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>Accounts!A6</f>
         <v>indexFund</v>
@@ -9769,7 +9764,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="str">
         <f>Accounts!A7</f>
         <v>etfFund</v>
@@ -9783,7 +9778,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>Accounts!A8</f>
         <v>roth401k_rich</v>
@@ -9801,7 +9796,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>Accounts!A9</f>
         <v>trad401k_rich</v>
@@ -9819,7 +9814,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f>Accounts!A10</f>
         <v>roth401k_becca</v>
@@ -9837,7 +9832,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f>Accounts!A11</f>
         <v>trad401k_becca</v>
@@ -9855,7 +9850,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f>Accounts!A12</f>
         <v>college529</v>
@@ -9873,7 +9868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="str">
         <f>Accounts!A13</f>
         <v>savings</v>
@@ -9897,7 +9892,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2E811-81FA-4F59-A9BB-547CEDB5B80F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G106"/>
@@ -9906,16 +9901,16 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="49" t="s">
         <v>51</v>
       </c>
@@ -9923,7 +9918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -9943,625 +9938,625 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="36"/>
       <c r="D32" s="37"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="36"/>
       <c r="D36" s="37"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="36"/>
       <c r="D39" s="37"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="36"/>
       <c r="D41" s="37"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="36"/>
       <c r="D43" s="37"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="36"/>
       <c r="D44" s="37"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="36"/>
       <c r="D45" s="37"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="36"/>
       <c r="D48" s="37"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="36"/>
       <c r="D51" s="37"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="18"/>
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="18"/>
       <c r="C53" s="36"/>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="36"/>
       <c r="D54" s="37"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="18"/>
       <c r="C56" s="36"/>
       <c r="D56" s="37"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="36"/>
       <c r="D57" s="37"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="18"/>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="36"/>
       <c r="D62" s="37"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="18"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="36"/>
       <c r="D66" s="37"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="36"/>
       <c r="D67" s="37"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="18"/>
       <c r="C68" s="36"/>
       <c r="D68" s="37"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="36"/>
       <c r="D71" s="37"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="18"/>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="36"/>
       <c r="D79" s="37"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="36"/>
       <c r="D80" s="37"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="36"/>
       <c r="D81" s="37"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="36"/>
       <c r="D82" s="37"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="36"/>
       <c r="D83" s="37"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="36"/>
       <c r="D84" s="37"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="36"/>
       <c r="D86" s="37"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="36"/>
       <c r="D87" s="37"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="36"/>
       <c r="D88" s="37"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="36"/>
       <c r="D89" s="37"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="36"/>
       <c r="D90" s="37"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="36"/>
       <c r="D91" s="37"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="36"/>
       <c r="D95" s="37"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="36"/>
       <c r="D96" s="37"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="36"/>
       <c r="D97" s="37"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="36"/>
       <c r="D98" s="37"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="36"/>
       <c r="D99" s="37"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="36"/>
       <c r="D100" s="37"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="36"/>
       <c r="D101" s="37"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="36"/>
       <c r="D102" s="37"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="36"/>
       <c r="D103" s="37"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="36"/>
       <c r="D104" s="37"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="36"/>
       <c r="D105" s="37"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="36"/>
@@ -10574,7 +10569,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228208F-908D-44CE-BB18-24656B27C42F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
@@ -10583,21 +10578,21 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -10614,7 +10609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -10647,7 +10642,7 @@
       <c r="M2"/>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>-3</v>
       </c>
@@ -10686,7 +10681,7 @@
       </c>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <f>B3</f>
         <v>17</v>
@@ -10721,7 +10716,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>B4</f>
         <v>27</v>
@@ -10757,7 +10752,7 @@
       <c r="M5"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -10777,7 +10772,7 @@
       <c r="M6"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -10797,7 +10792,7 @@
       <c r="M7"/>
       <c r="N7" s="28"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -10817,7 +10812,7 @@
       </c>
       <c r="N8" s="28"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -10827,7 +10822,7 @@
       <c r="G9" s="37"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -10842,7 +10837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -10851,7 +10846,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -10860,7 +10855,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -10869,7 +10864,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -10878,16 +10873,16 @@
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G15" s="35"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="35"/>
     </row>
   </sheetData>
@@ -10898,7 +10893,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Z16"/>
@@ -10907,23 +10902,23 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="28"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -10935,7 +10930,7 @@
       <c r="I2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
@@ -10948,7 +10943,7 @@
       <c r="I3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
@@ -10986,7 +10981,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="70" t="s">
         <v>129</v>
       </c>
@@ -10997,7 +10992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -11016,7 +11011,7 @@
       <c r="I6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -11029,11 +11024,11 @@
       <c r="I7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -11046,7 +11041,7 @@
       <c r="I9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -11059,7 +11054,7 @@
       <c r="I10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -11072,13 +11067,13 @@
       <c r="I11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="39"/>
       <c r="I12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>44</v>
       </c>
@@ -11088,15 +11083,15 @@
       <c r="I13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I16"/>
       <c r="M16"/>
     </row>
